--- a/Documentação/Planilhas/View_Report_MIS.xlsx
+++ b/Documentação/Planilhas/View_Report_MIS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="17235" windowHeight="2895" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="17235" windowHeight="2895" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4182" uniqueCount="1022">
   <si>
     <t>TABLE_CATALOG</t>
   </si>
@@ -1760,9 +1760,6 @@
     <t>logistica_pontualidade_diario_detalhe_nike.rdl</t>
   </si>
   <si>
-    <t>Tabela Física</t>
-  </si>
-  <si>
     <t>Data Source</t>
   </si>
   <si>
@@ -2320,6 +2317,989 @@
   </si>
   <si>
     <t>PONTO_ID</t>
+  </si>
+  <si>
+    <t>rpt_dashboard_lista_casamento.rdl</t>
+  </si>
+  <si>
+    <t>ODS_LISTA_CASAMENTO</t>
+  </si>
+  <si>
+    <t>Tabela Física / Stored Procedure</t>
+  </si>
+  <si>
+    <t>Stored Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkt.ods_dashb_lc </t>
+  </si>
+  <si>
+    <t>coloca fixo "Nova" no union existe</t>
+  </si>
+  <si>
+    <t>ODS_APPROVED</t>
+  </si>
+  <si>
+    <t>mkt.rel_dashb_lc_approved</t>
+  </si>
+  <si>
+    <t>mkt.ods_dashb_lc_approved</t>
+  </si>
+  <si>
+    <t>ODS_FATDEV</t>
+  </si>
+  <si>
+    <t>mkt.rel_dashb_lc_margin</t>
+  </si>
+  <si>
+    <t>mkt.rel_dashb_lc_qtd_lista</t>
+  </si>
+  <si>
+    <t>FILTRO_PARCEIRO</t>
+  </si>
+  <si>
+    <t>FILTRO_MIDIA</t>
+  </si>
+  <si>
+    <t>FILTRO_CAMPANHA</t>
+  </si>
+  <si>
+    <t>FILTRO_ESTADO</t>
+  </si>
+  <si>
+    <t>FILTRO_CIDADE</t>
+  </si>
+  <si>
+    <t>FILTRO_CANAL_MKT</t>
+  </si>
+  <si>
+    <t>FILTRO_PARCEIRO_MKT</t>
+  </si>
+  <si>
+    <t>FILTRO_CANAL_VENDA</t>
+  </si>
+  <si>
+    <t>mkt.rel_dashb_lc_qtd_lista_x_approved</t>
+  </si>
+  <si>
+    <t>ODS_LC_X_AP</t>
+  </si>
+  <si>
+    <t>mkt.ods_dashb_lc_margin</t>
+  </si>
+  <si>
+    <t>mkt.ods_dashb_lc</t>
+  </si>
+  <si>
+    <t>FILTRO_DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>FILTRO_SETOR</t>
+  </si>
+  <si>
+    <t>METAS_LISTA</t>
+  </si>
+  <si>
+    <t>rpt_faturamento.rdl</t>
+  </si>
+  <si>
+    <t>Faturamento</t>
+  </si>
+  <si>
+    <t>Setor</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
+  <si>
+    <t>Unidadenegocio</t>
+  </si>
+  <si>
+    <t>MargemNegativa</t>
+  </si>
+  <si>
+    <t>rpt_faturamento_sku.rdl</t>
+  </si>
+  <si>
+    <t>rpt_faturamento_sku_fornecedor.rdl</t>
+  </si>
+  <si>
+    <t>ds_faturamento</t>
+  </si>
+  <si>
+    <t>dbo.vw_fact_fatdev</t>
+  </si>
+  <si>
+    <t>and a.ID_MEIO_PAGTO not in (30030010000,30100010000,30040010000,30370010000,30170010000,30180010000,30190010000,
+30050010000,30470010000,30020010000,30150010000,30000010000,30000010001,30000020000,30000030000,30000040000,
+30000050000,30000060000,30000070000,30000080000,30000090000,30000100000,30000110000,30000120000,30000150000,
+30000160000,30000170000,30380010000,30210010000,30080010000,30010010000,30460010000,30420010000)</t>
+  </si>
+  <si>
+    <t>id_meio_pagto</t>
+  </si>
+  <si>
+    <t>dbo.ods_product</t>
+  </si>
+  <si>
+    <t>where nr_id_unidade_negocio in (4,9,14)</t>
+  </si>
+  <si>
+    <t>rpt_faturamento_sku_mais_vendido.rdl</t>
+  </si>
+  <si>
+    <t>depto</t>
+  </si>
+  <si>
+    <t>Ocerto</t>
+  </si>
+  <si>
+    <t>SIGENOVA</t>
+  </si>
+  <si>
+    <t>v_dw_fat_v3</t>
+  </si>
+  <si>
+    <t>fat_nr_cia</t>
+  </si>
+  <si>
+    <t>f.fat_ds_status != 'C'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.fat_nr_cia = 1 </t>
+  </si>
+  <si>
+    <t>fat_ds_status</t>
+  </si>
+  <si>
+    <t>f.fat_modulo_gerencial in ('VE','VS')</t>
+  </si>
+  <si>
+    <t>fat_modulo_gerencial</t>
+  </si>
+  <si>
+    <t>rpt_flash_b2b.rdl</t>
+  </si>
+  <si>
+    <t>DS_orders_today</t>
+  </si>
+  <si>
+    <t>DS_parceiros_top_5</t>
+  </si>
+  <si>
+    <t>CB_ORDERS_TODAY_B2B</t>
+  </si>
+  <si>
+    <t>ORDERS_TODAY_OLAP0</t>
+  </si>
+  <si>
+    <t>[Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[AOC], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[VALE], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2C Casas Bahia], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2C Extra], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2C PF], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[Parceria], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[Fuji], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[HP], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[CSW], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[Barateiro], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[Atacado], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[TESTE], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[NÃO UTILIZADO], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[NÃO INFORMADO], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[Laselva], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2B Casas Bahia], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2B Extra], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2B PF] } ) ON COLUMNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT ( -{ 
+  [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[AOC],
+  [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[VALE],
+  [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2C Casas Bahia],
+  [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2C Extra],
+  [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2C PF],
+  [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[Fuji],
+  [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[HP],
+  [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[CSW],
+  [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[Barateiro],
+  [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[Atacado],
+  [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[TESTE], 
+  [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[NÃO UTILIZADO], 
+  [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[NÃO INFORMADO], 
+  [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[Laselva], 
+  [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2B Casas Bahia], 
+  [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2B Extra], 
+  [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2B PF] } ) </t>
+  </si>
+  <si>
+    <t>DS_parcerias_top_5</t>
+  </si>
+  <si>
+    <t>{ [Dim Unidade Negocio].[Unidade de Negócio].[Unidade Negócio].&amp;[B2B Casas Bahia], [Dim Unidade Negocio].[Unidade de Negócio].[Unidade Negócio].&amp;[B2B PF], [Dim Unidade Negocio].[Unidade de Negócio].[Unidade Negócio].&amp;[B2B Extra] } ) ON COLUMNS</t>
+  </si>
+  <si>
+    <t>DS_bandeira_today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[AOC], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[VALE], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2C Casas Bahia], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2C Extra], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2C PF], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[Fuji], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[HP], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[CSW], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[Barateiro], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[Atacado], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[TESTE], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[NÃO UTILIZADO], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[NÃO INFORMADO], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[Laselva], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2B Casas Bahia], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2B Extra], [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[B2B PF] } ) ON COLUMNS</t>
+  </si>
+  <si>
+    <t>DS_estrutura_meta</t>
+  </si>
+  <si>
+    <t>{ [Dim Parceiro B2B].[Estrutura Parceiro B2B].[Célula].&amp;[SUPRIMENTOS].&amp;[SUPRIMENTOS].&amp;[SUPRIMENTOS].&amp;[SUPRIMENTOS] } ) ON COLUMNS</t>
+  </si>
+  <si>
+    <t>rpt_garantia_estendida_dinamico_relacional.rdl</t>
+  </si>
+  <si>
+    <t>ds_departamento</t>
+  </si>
+  <si>
+    <t>ds_marca</t>
+  </si>
+  <si>
+    <t>dim.ods_produto</t>
+  </si>
+  <si>
+    <t>ISNULL(ds_marca, 'Não Informado')</t>
+  </si>
+  <si>
+    <t>ds_plano_garantech</t>
+  </si>
+  <si>
+    <t>ds_prefixo_plano_garantech</t>
+  </si>
+  <si>
+    <t>ds_descricao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Não Informado' as ds_prefixo_plano_garantech, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Não Informado' as ds_descricao</t>
+  </si>
+  <si>
+    <t>ods_plano_garantech</t>
+  </si>
+  <si>
+    <t>ds_prefixo_garantech</t>
+  </si>
+  <si>
+    <t>'Não Informado' as ds_prefixo_plano_garantech</t>
+  </si>
+  <si>
+    <t>rpt_indicador_mkpl.rdl</t>
+  </si>
+  <si>
+    <t>DS_Rank</t>
+  </si>
+  <si>
+    <t>olap_market_place</t>
+  </si>
+  <si>
+    <t>Orders_Approved</t>
+  </si>
+  <si>
+    <t>rpt_indicador_order_mkpl.rdl</t>
+  </si>
+  <si>
+    <t>Orders_Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FROM ( SELECT ( STRTOMEMBER(@FromDimDataPedidoData, CONSTRAINED) : STRTOMEMBER(@ToDimDataPedidoData, CONSTRAINED) ) ON COLUMNS 
+ FROM ( SELECT ( -{ [Dim Lojista].[Lojista].[Lojistas].&amp;[15], [Dim Lojista].[Lojista].[Lojistas].&amp;[16], [Dim Lojista].[Lojista].[Lojistas].&amp;[3], [Dim Lojista].[Lojista].[Lojistas].&amp;[10083] } ) ON COLUMNS 
+ FROM ( SELECT ( -{ [Dim Meio Pagamento].[Meios de Pagamento].[Meio de Pagamento].&amp;[Livre de Débito] } ) ON COLUMNS 
+ FROM ( SELECT ( -{ [Dim Unidade Negocio].[Unidade de Negócio].[Unidade Negócio].&amp;[Atacado] } ) ON COLUMNS 
+ FROM [Orders_Web]))))</t>
+  </si>
+  <si>
+    <t>(  SELECT ( -{ [Dim Lojista].[Lojista].[Lojistas].&amp;[15], [Dim Lojista].[Lojista].[Lojistas].&amp;[16], 
+ [Dim Lojista].[Lojista].[Lojistas].&amp;[3], [Dim Lojista].[Lojista].[Lojistas].&amp;[10083] } ) ON COLUMNS 
+ FROM (   SELECT ( -{ [Dim Meio Pagamento].[Meios de Pagamento].[Meio de Pagamento].&amp;[Livre de Débito] } ) ON COLUMNS 
+ FROM (   SELECT ( -{ [Dim Unidade Negocio].[Unidade de Negócio].[Unidade Negócio].&amp;[Atacado] } ) ON COLUMNS 
+ FROM (   SELECT ( STRTOMEMBER(@FromDimDataAprovacaoData, CONSTRAINED) : STRTOMEMBER(@ToDimDataAprovacaoData, CONSTRAINED) ) ON COLUMNS  FROM [Orders_Approved]))))</t>
+  </si>
+  <si>
+    <t>rpt_indicador_orders_vlmargem.rdl</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>and b.ds_item = 'Produto'</t>
+  </si>
+  <si>
+    <t>where ed.id_tipodeposito = 'WN'</t>
+  </si>
+  <si>
+    <t>rpt_indicador_orders_vlproduto.rdl</t>
+  </si>
+  <si>
+    <t>rpt_indicador_orders</t>
+  </si>
+  <si>
+    <t>vl_com_desconto</t>
+  </si>
+  <si>
+    <t>cast(sum(a.vl_com_desconto) * 0.2725 as decimal(20,2))</t>
+  </si>
+  <si>
+    <t>dim_estoque_deposito</t>
+  </si>
+  <si>
+    <t>and es.id_filial &lt;&gt; 3</t>
+  </si>
+  <si>
+    <t>id.filial</t>
+  </si>
+  <si>
+    <t>rpt_indicador_orders_vlproduto_depto.rdl</t>
+  </si>
+  <si>
+    <t>pr_relatorio_orders_depto</t>
+  </si>
+  <si>
+    <t>rpt_indicador_orders_vlproduto_parceiro.rdl</t>
+  </si>
+  <si>
+    <t>rpt_indicador_orders_parceiro</t>
+  </si>
+  <si>
+    <t>pr_relatorio_orders_parceiro</t>
+  </si>
+  <si>
+    <t>rpt_indicador_orders_vlproduto_unineg_parceiro.rdl</t>
+  </si>
+  <si>
+    <t>pr_relatorio_orders_unineg_parceiro</t>
+  </si>
+  <si>
+    <t>rpt_indicador_orders_unineg_parceiro</t>
+  </si>
+  <si>
+    <t>rpt_indicador_rentabilidade_vlfat.rdl</t>
+  </si>
+  <si>
+    <t>dim_data</t>
+  </si>
+  <si>
+    <t>MIS_RENTAB</t>
+  </si>
+  <si>
+    <t>where ANO_DATA&gt;=2011</t>
+  </si>
+  <si>
+    <t>ano_data</t>
+  </si>
+  <si>
+    <t>Rentabilidade</t>
+  </si>
+  <si>
+    <t>rpt_indicador_rentabilidade_vlfat_depto.rdl</t>
+  </si>
+  <si>
+    <t>pr_relatorio_faturamento_depto</t>
+  </si>
+  <si>
+    <t>rpt_indicador_rentabilidade_vlfat_depto_unineg.rdl</t>
+  </si>
+  <si>
+    <t>pr_relatorio_faturamento_depto_unineg</t>
+  </si>
+  <si>
+    <t>dim_unineg</t>
+  </si>
+  <si>
+    <t>where ID_UNINEG &lt;&gt; 2</t>
+  </si>
+  <si>
+    <t>id_unineg</t>
+  </si>
+  <si>
+    <t>rpt_indicador_rentabilidade_vlmargem.rdl</t>
+  </si>
+  <si>
+    <t>rpt_inventory_supplier.rdl</t>
+  </si>
+  <si>
+    <t>Homologacao</t>
+  </si>
+  <si>
+    <t>case when a.ds_flagbloqueio = 1 then 'Sim' else 'Não' end as ds_flagbloqueio,</t>
+  </si>
+  <si>
+    <t>case when a.ds_flagprepagto = 1 then 'Sim' else 'Não' end as ds_flagprepagto,</t>
+  </si>
+  <si>
+    <t>case when a.fl_estoque = 1 then 'Sim' else 'Não' end as fl_estoque,</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>prepagto</t>
+  </si>
+  <si>
+    <t>flagbloqueio</t>
+  </si>
+  <si>
+    <t>select cast(0 as bit) as ds_flagbloqueio, 'Não' as flagbloqueio
+union all 
+select cast(1 as bit) as ds_flagbloqueio, 'Sim' as flagbloqueio</t>
+  </si>
+  <si>
+    <t>flagprepagto</t>
+  </si>
+  <si>
+    <t>select cast(0 as bit) as ds_flagprepagto, 'Não' as flagprepagto
+union all 
+select cast(1 as bit) as ds_flagprepagto, 'Sim' as flagprepagto</t>
+  </si>
+  <si>
+    <t>desfinanciado</t>
+  </si>
+  <si>
+    <t>select cast(0 as int) as fl_desfinanciado, 'Não' as desfinanciado
+union all 
+select cast(1 as int) as fl_desfinanciado, 'Sim' as desfinanciado
+union all 
+select cast(2 as int) as fl_desfinanciado, 'Indiferente' as desfinanciado</t>
+  </si>
+  <si>
+    <t>where nr_depto not in (664,55,50)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>dim_orders_status</t>
+  </si>
+  <si>
+    <t>where ds_cd_status &lt;&gt; 'C'</t>
+  </si>
+  <si>
+    <t>ds_cd_status</t>
+  </si>
+  <si>
+    <t>Estoque</t>
+  </si>
+  <si>
+    <t>estoque</t>
+  </si>
+  <si>
+    <t>select cast(0 as int) as fl_estoque, 'Não' as estoque
+union all 
+select cast(1 as int) as fl_estoque, 'Sim' as estoque</t>
+  </si>
+  <si>
+    <t>DataProcess</t>
+  </si>
+  <si>
+    <t>where codigo = 30</t>
+  </si>
+  <si>
+    <t>rpt_lista_casamento.rdl</t>
+  </si>
+  <si>
+    <t>ds_lista_casamento</t>
+  </si>
+  <si>
+    <t>sp_rpt_lista_casamento</t>
+  </si>
+  <si>
+    <t>mkt.ods_rpt_lista_casamento</t>
+  </si>
+  <si>
+    <t>a.fl_ativo</t>
+  </si>
+  <si>
+    <t>case when a.fl_ativo = 1 then ''S'' else ''N'' end as fl_ativo</t>
+  </si>
+  <si>
+    <t>dbo.dim_unidade_negocio</t>
+  </si>
+  <si>
+    <t>WHERE   (ds_unidade_negocio LIKE '%B2C%')</t>
+  </si>
+  <si>
+    <t>ds_estado</t>
+  </si>
+  <si>
+    <t>rpt_lista_casamento_listas_fora_do_cubo.rdl</t>
+  </si>
+  <si>
+    <t>ds_rpt_listas_fora</t>
+  </si>
+  <si>
+    <t>rpt_margem_sku_orders_today_extremo_inferior.rdl</t>
+  </si>
+  <si>
+    <t>ds_visao_extremo_inferior</t>
+  </si>
+  <si>
+    <t>dbo.vw_relatorio_acompanhamento_margem</t>
+  </si>
+  <si>
+    <t>where RowNumber &lt;= 20</t>
+  </si>
+  <si>
+    <t>RowNumber</t>
+  </si>
+  <si>
+    <t>rpt_margem_sku_orders_today_extremo_superior.rdl</t>
+  </si>
+  <si>
+    <t>ds_margem_superior</t>
+  </si>
+  <si>
+    <t>rpt_nova_x_concorrencia.rdl</t>
+  </si>
+  <si>
+    <t>rpt_num_pedidos_aprovados.rdl</t>
+  </si>
+  <si>
+    <t>DataAtualizacao</t>
+  </si>
+  <si>
+    <t>aux_horario_status</t>
+  </si>
+  <si>
+    <t>WHERE     (Codigo = 2)</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>dsPrincipal</t>
+  </si>
+  <si>
+    <t>dbo.ods_relatorio_pedidos_aprovados</t>
+  </si>
+  <si>
+    <t>CASE a.ds_status WHEN 'C' THEN 'Cancelado' WHEN 'A' THEN 'Aberto'   WHEN 'L' THEN 'Liquidado' WHEN 'R' THEN 'Reprovado' END AS ds_status,</t>
+  </si>
+  <si>
+    <t>Parceiro</t>
+  </si>
+  <si>
+    <t>Bandeira</t>
+  </si>
+  <si>
+    <t>cd_status</t>
+  </si>
+  <si>
+    <t>select 'A' as cd_status, 'Aberto' as ds_status
+union all
+select 'L' as cd_status, 'Liquidado' as ds_status
+union all
+select 'C' as cd_status, 'Cancelado' as ds_status
+union all
+select 'R' as cd_status, 'Reprovado' as ds_status</t>
+  </si>
+  <si>
+    <t>rpt_parceria_seguros.rdl</t>
+  </si>
+  <si>
+    <t>ds_parceria_seguros</t>
+  </si>
+  <si>
+    <t>ds_fornecedor</t>
+  </si>
+  <si>
+    <t>rpt_planilhao_atacado.rdl</t>
+  </si>
+  <si>
+    <t>WHERE ds_depto &lt;&gt; 'Consumo Interno'</t>
+  </si>
+  <si>
+    <t>Status_ABC</t>
+  </si>
+  <si>
+    <t>WHERE     (Codigo = 24)</t>
+  </si>
+  <si>
+    <t>Planilhao</t>
+  </si>
+  <si>
+    <t>dbo.ods_tb_planilhao_atacado</t>
+  </si>
+  <si>
+    <t>case when FlagAtiva = 1 then 'Sim' when FlagAtiva = 0 then 'Não' else 'N/I' end as FlagAtiva,</t>
+  </si>
+  <si>
+    <t>case when FlagSkuProduzido = 1 then 'Sim' when FlagSkuProduzido = 0 then 'Não' else 'N/I' end as FlagSkuProduzido</t>
+  </si>
+  <si>
+    <t>FlagAtiva</t>
+  </si>
+  <si>
+    <t>EstoqueFisico</t>
+  </si>
+  <si>
+    <t>(EstoqueFisico &lt; CASE WHEN @EstoqueFisico  = 0  THEN 0 END)
+   OR (EstoqueFisico = CASE WHEN @EstoqueFisico  = 1  THEN 0 END)
+   OR (EstoqueFisico &gt; CASE WHEN @EstoqueFisico  = 2  THEN 0 END)
+   OR (1 = CASE WHEN @EstoqueFisico  = 3  THEN 1 END)</t>
+  </si>
+  <si>
+    <t>EstoqueDisponivel</t>
+  </si>
+  <si>
+    <t>(EstoqueDisponivel &lt; CASE WHEN @EstoqueDisponivel  = 0 THEN 0 END)
+   OR (EstoqueDisponivel = CASE WHEN @EstoqueDisponivel  = 1  THEN 0 END)
+   OR (EstoqueDisponivel &gt; CASE WHEN @EstoqueDisponivel  = 2  THEN 0 END)
+   OR (1= CASE WHEN @EstoqueDisponivel  = 3  THEN 1 END)</t>
+  </si>
+  <si>
+    <t>rpt_planilhao_b2c.rdl</t>
+  </si>
+  <si>
+    <t>dbo.ods_tb_planilhao</t>
+  </si>
+  <si>
+    <t>,case when t.yn_ExibeExtra = 1 then 'Sim' else 'Não' end as ExibeExtra</t>
+  </si>
+  <si>
+    <t>,case when t.yn_ExibeCB = 1 then 'Sim' else 'Não' end as ExibeCB</t>
+  </si>
+  <si>
+    <t>,case when t.yn_ExibePF = 1 then 'Sim' else 'Não' end as ExibePF</t>
+  </si>
+  <si>
+    <t>yn_ExibeExtra</t>
+  </si>
+  <si>
+    <t>yn_ExibeCB</t>
+  </si>
+  <si>
+    <t>yn_ExibePF</t>
+  </si>
+  <si>
+    <t>(t.EstoqueFisico &lt; CASE WHEN @EstoqueFisico  = 0  THEN 0 END)
+   OR  (t.EstoqueFisico = CASE WHEN @EstoqueFisico  = 1  THEN 0 END)
+   OR (t.EstoqueFisico &gt; CASE WHEN @EstoqueFisico  = 2  THEN 0 END)
+   OR (1 = CASE WHEN @EstoqueFisico  = 3  THEN 1 END)</t>
+  </si>
+  <si>
+    <t>(t.EstoqueDisponivel &lt; CASE WHEN @EstoqueDisponivel  = 0 THEN 0 END)
+   OR (t.EstoqueDisponivel = CASE WHEN @EstoqueDisponivel  = 1  THEN 0 END)
+   OR (t.EstoqueDisponivel &gt; CASE WHEN @EstoqueDisponivel  = 2  THEN 0 END)
+   OR (1= CASE WHEN @EstoqueDisponivel  = 3  THEN 1 END)</t>
+  </si>
+  <si>
+    <t>StatusLoja</t>
+  </si>
+  <si>
+    <t>SELECT 'Ativo' AS StatusLoja
+UNION ALL
+SELECT 'Inativo'</t>
+  </si>
+  <si>
+    <t>WHERE codigo = 23</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>and ds_product_type = 'Produto'</t>
+  </si>
+  <si>
+    <t>rpt_ruptura_lista_casamento.rdl</t>
+  </si>
+  <si>
+    <t>rpt_ruptura_lista_casamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE Unineg 
+                When  1 THEN 'Ponto Frio'
+                When  5 THEN 'Extra'
+                When  8 THEN 'Casas Bahia'
+                ELSE 'Nenhum'  
+                END as Unineg </t>
+  </si>
+  <si>
+    <t>unineg</t>
+  </si>
+  <si>
+    <t>case unineg 
+when 1 then 'Ponto Frio' 
+when 5 then 'Extra'
+when 8 then 'Casas Bahia'
+else 'Nenhum'
+end as ds_unineg</t>
+  </si>
+  <si>
+    <t>rpt_ruptura_x_orders.rdl</t>
+  </si>
+  <si>
+    <t>ds_rpt_ruptura_x_orders</t>
+  </si>
+  <si>
+    <t>rpt_sku.rdl</t>
+  </si>
+  <si>
+    <t>rpt_titulo_car_conciliacao.rdl</t>
+  </si>
+  <si>
+    <t>relatorio</t>
+  </si>
+  <si>
+    <t>documentos</t>
+  </si>
+  <si>
+    <t>ods_estabelecimento</t>
+  </si>
+  <si>
+    <t>select 'A' as Id_situacao, 'Aberto' as ds_situacao
+union all
+select 'C' as Id_situacao, 'Cancelado' as ds_situacao
+union all
+select 'L' as Id_situacao, 'Liquidado' as ds_situacao</t>
+  </si>
+  <si>
+    <t>Id_situacao</t>
+  </si>
+  <si>
+    <t>Transacao</t>
+  </si>
+  <si>
+    <t>fin.ods_transacao</t>
+  </si>
+  <si>
+    <t>where ds_id_modulo = 'CR'</t>
+  </si>
+  <si>
+    <t>ds_id_modulo</t>
+  </si>
+  <si>
+    <t>fornecedores</t>
+  </si>
+  <si>
+    <t>rpt_titulo_reembolso.rdl</t>
+  </si>
+  <si>
+    <t>ods_unidade_negocio</t>
+  </si>
+  <si>
+    <t>where nr_id_unidade_negocio not in (2,6,7,11)
+union all
+select 99, 'Não Informado'</t>
+  </si>
+  <si>
+    <t>Modalidade</t>
+  </si>
+  <si>
+    <t>fin.vw_titulo_reembolso</t>
+  </si>
+  <si>
+    <t>where ds_modalidade not in ('Atacado')</t>
+  </si>
+  <si>
+    <t>ds_modalidade</t>
+  </si>
+  <si>
+    <t>erro</t>
+  </si>
+  <si>
+    <t>select 'S' as erro
+union all
+select 'N' as erro</t>
+  </si>
+  <si>
+    <t>Meio_Pagamento</t>
+  </si>
+  <si>
+    <t>fin.ods_sige_meio_pagamento</t>
+  </si>
+  <si>
+    <t>nr_id_meio_pagamento</t>
+  </si>
+  <si>
+    <t>union all
+select 99, 'Não Informado'</t>
+  </si>
+  <si>
+    <t>Canal_Venda</t>
+  </si>
+  <si>
+    <t>fin.ods_cap_reembolso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isnull(ds_canal_venda,'N/I') </t>
+  </si>
+  <si>
+    <t>rs_produto_complemento.rdl</t>
+  </si>
+  <si>
+    <t>DSetRelatorio</t>
+  </si>
+  <si>
+    <t>ods_relatorio_produto_complemento</t>
+  </si>
+  <si>
+    <t>CASE WHEN ds_status = 'A' THEN 'Aberto' ELSE CASE WHEN ds_status = 'C' THEN 'Cancelado' ELSE 'Não Informado' END END</t>
+  </si>
+  <si>
+    <t>DSetParametroDepartamento</t>
+  </si>
+  <si>
+    <t>DSetParametroSetor</t>
+  </si>
+  <si>
+    <t>DSetParametroFornecedor</t>
+  </si>
+  <si>
+    <t>DSetMinMaxInclusao</t>
+  </si>
+  <si>
+    <t>DSetParametroFilial</t>
+  </si>
+  <si>
+    <t>dst_ex</t>
+  </si>
+  <si>
+    <t>dst_cb</t>
+  </si>
+  <si>
+    <t>dst_pf</t>
+  </si>
+  <si>
+    <t>dst_aoc</t>
+  </si>
+  <si>
+    <t>dst_barateiro</t>
+  </si>
+  <si>
+    <t>dst_hp</t>
+  </si>
+  <si>
+    <t>dst_param_depto</t>
+  </si>
+  <si>
+    <t>dst_param_categ</t>
+  </si>
+  <si>
+    <t>dst_param_subcateg</t>
+  </si>
+  <si>
+    <t>db_hom_extra</t>
+  </si>
+  <si>
+    <t>DadosConfiguracao</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE Nome = 'MarketplaceIdLojistaGpa' </t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>CASE prod.[FlagAtiva]      
+  WHEN '1' THEN 'VERDADEIRO'      
+  ELSE 'FALSO'      
+ END AS [PRODUTO_ATIVO]</t>
+  </si>
+  <si>
+    <t>Sku</t>
+  </si>
+  <si>
+    <t>CASE sku.[FlagAtiva]      
+  WHEN '1' THEN 'VERDADEIRO'      
+  ELSE 'FALSO'      
+ END AS [SKU_ATIVO]</t>
+  </si>
+  <si>
+    <t>CASE sku.[FlagAtivaERP]      
+  WHEN '1' THEN 'VERDADEIRO'      
+  ELSE 'FALSO'      
+ END AS [SKU_FISCAL_ATIVO]</t>
+  </si>
+  <si>
+    <t>FlagAtivaERP</t>
+  </si>
+  <si>
+    <t>Arquivo</t>
+  </si>
+  <si>
+    <t>IdTipoArquivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND   Arquivo.IdTipoArquivo = 3 </t>
+  </si>
+  <si>
+    <t>AND   Arquivo.IdTipoArquivo = 10</t>
+  </si>
+  <si>
+    <t>SkuComplemento</t>
+  </si>
+  <si>
+    <t>IdSkuComplementoTipo</t>
+  </si>
+  <si>
+    <t>(CASE       
+  WHEN EXISTS(      
+   SELECT NULL AS [EMPTY]      
+   FROM [SkuComplemento] (nolock)      
+   WHERE ([SkuComplemento].[IdSkuComplementoTipo] = 1) AND ([SkuComplemento].[IdSkuPai] = sku.[IdSKU])      
+   ) THEN 'VERDADEIRO'      
+  ELSE 'FALSO'      
+ END) AS [POSSUI_ACESSORIOS]</t>
+  </si>
+  <si>
+    <t>(CASE       
+  WHEN EXISTS(      
+   SELECT NULL AS [EMPTY]      
+   FROM [SkuComplemento] (nolock)
+   WHERE ([SkuComplemento].[IdSkuComplementoTipo] = 2) AND ([SkuComplemento].[IdSkuPai] = sku.[IdSKU])      
+   ) THEN 'VERDADEIRO'      
+  ELSE 'FALSO'      
+ END) AS [POSSUI_SUGESTOES]</t>
+  </si>
+  <si>
+    <t>DescontoCompreJunto</t>
+  </si>
+  <si>
+    <t>flagAtiva</t>
+  </si>
+  <si>
+    <t>(CASE       
+  WHEN EXISTS(      
+   SELECT NULL AS [EMPTY]      
+   FROM [DescontoCompreJuntoSkuLista1] (nolock) AS dcjskulista    
+   INNER JOIN [DescontoCompreJunto] AS dcj ON dcj.[idDescontoCompreJunto] = dcjskulista.[idDescontoCompreJunto]      
+   WHERE (dcjskulista.[idSku] = sku.[IdSKU]) AND (dcj.[flagAtiva] = 1)      
+   ) THEN 'VERDADEIRO'      
+ ELSE 'FALSO' END) AS [POSSUI_CROSS_SELLING_ATIVO]</t>
+  </si>
+  <si>
+    <t>SkuServico</t>
+  </si>
+  <si>
+    <t>IdSkuServicoTipo</t>
+  </si>
+  <si>
+    <t>(CASE       
+  WHEN EXISTS(      
+   SELECT NULL AS [EMPTY]      
+   FROM [SkuServico] (nolock) AS skuserv      
+   WHERE (skuserv.[IdSkuServicoTipo] = 127) AND (skuserv.[IdSku] = sku.[IdSKU])      
+   ) THEN 'VERDADEIRO'      
+  ELSE 'FALSO'      
+ END) AS [POSSUI_GARANTIA]</t>
+  </si>
+  <si>
+    <t>(CASE       
+  WHEN EXISTS(      
+SELECT NULL AS [EMPTY]      
+   FROM [SkuServico] (nolock) AS skuserv1      
+   WHERE (skuserv1.[IdSkuServicoTipo] = 127) AND (skuserv1.[FlagAtiva] = 1) AND (skuserv1.[IdSku] = sku.[IdSKU])      
+  ) THEN 'VERDADEIRO'      
+  ELSE 'FALSO'      
+ END) AS [POSSUI_GARANTIA_ATIVA]</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>where flagativa=1</t>
+  </si>
+  <si>
+    <t>flagativa</t>
+  </si>
+  <si>
+    <t>UNION ALL select '0', 'Todos'</t>
+  </si>
+  <si>
+    <t>select case when @IdCategoria_Child = 0 then -1 else null end IdCategoria, 
+case when @IdCategoria_Child = 0 then 'Todos' else null end as Nome) a</t>
   </si>
 </sst>
 </file>
@@ -2442,7 +3422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2523,25 +3503,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2559,6 +3610,47 @@
           <color theme="0"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2657,86 +3749,16 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <top/>
-      </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -2799,6 +3821,9 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2810,7 +3835,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F206" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F206" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="A1:F206">
     <filterColumn colId="4">
       <filters blank="1"/>
@@ -2846,25 +3871,26 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela24" displayName="Tabela24" ref="A1:C119" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela24" displayName="Tabela24" ref="A1:C258" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <tableColumns count="3">
-    <tableColumn id="1" name="REPORT" dataDxfId="4"/>
-    <tableColumn id="2" name="Dataset" dataDxfId="3"/>
-    <tableColumn id="3" name="Verificado" dataDxfId="2"/>
+    <tableColumn id="1" name="REPORT" dataDxfId="12"/>
+    <tableColumn id="2" name="Dataset" dataDxfId="11"/>
+    <tableColumn id="3" name="Verificado" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:F68" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="13">
-  <tableColumns count="6">
-    <tableColumn id="1" name="REPORT" dataDxfId="8"/>
-    <tableColumn id="2" name="Dataset" dataDxfId="7"/>
-    <tableColumn id="3" name="Data Source" dataDxfId="6"/>
-    <tableColumn id="4" name="Tabela Física" dataDxfId="5"/>
-    <tableColumn id="5" name="Atributo Condicional Hard-Code" dataDxfId="10"/>
-    <tableColumn id="6" name="Script Hard-Code" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:G197" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowBorderDxfId="0">
+  <tableColumns count="7">
+    <tableColumn id="1" name="REPORT" dataDxfId="9"/>
+    <tableColumn id="2" name="Dataset" dataDxfId="8"/>
+    <tableColumn id="3" name="Data Source" dataDxfId="7"/>
+    <tableColumn id="7" name="Stored Procedure" dataDxfId="6"/>
+    <tableColumn id="4" name="Tabela Física / Stored Procedure" dataDxfId="5"/>
+    <tableColumn id="5" name="Atributo Condicional Hard-Code" dataDxfId="4"/>
+    <tableColumn id="6" name="Script Hard-Code" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10890,16 +11916,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C258"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
+    <sheetView showGridLines="0" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="25" customWidth="1"/>
   </cols>
@@ -11005,7 +12031,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>545</v>
@@ -11016,7 +12042,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>546</v>
@@ -11027,10 +12053,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>562</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>563</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>225</v>
@@ -11038,10 +12064,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>225</v>
@@ -11049,7 +12075,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>349</v>
@@ -11060,10 +12086,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>225</v>
@@ -11071,10 +12097,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>225</v>
@@ -11082,10 +12108,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>567</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>568</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>225</v>
@@ -11093,7 +12119,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>373</v>
@@ -11104,10 +12130,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>225</v>
@@ -11115,7 +12141,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>549</v>
@@ -11126,10 +12152,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>225</v>
@@ -11137,10 +12163,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>225</v>
@@ -11148,10 +12174,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>225</v>
@@ -11159,10 +12185,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>225</v>
@@ -11170,7 +12196,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>349</v>
@@ -11181,10 +12207,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>225</v>
@@ -11192,10 +12218,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>225</v>
@@ -11203,10 +12229,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>225</v>
@@ -11214,10 +12240,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>225</v>
@@ -11225,7 +12251,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>349</v>
@@ -11236,10 +12262,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>225</v>
@@ -11247,10 +12273,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>225</v>
@@ -11258,10 +12284,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>225</v>
@@ -11269,10 +12295,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>225</v>
@@ -11280,7 +12306,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>349</v>
@@ -11291,10 +12317,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>225</v>
@@ -11302,10 +12328,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>225</v>
@@ -11313,10 +12339,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>225</v>
@@ -11324,10 +12350,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>225</v>
@@ -11335,10 +12361,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>586</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>587</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>225</v>
@@ -11346,10 +12372,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>225</v>
@@ -11357,10 +12383,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>589</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>590</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>225</v>
@@ -11368,10 +12394,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>225</v>
@@ -11379,10 +12405,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>225</v>
@@ -11390,10 +12416,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>594</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>595</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>225</v>
@@ -11401,10 +12427,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>225</v>
@@ -11412,10 +12438,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>225</v>
@@ -11423,10 +12449,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>602</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>603</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>225</v>
@@ -11434,10 +12460,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>225</v>
@@ -11445,10 +12471,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>225</v>
@@ -11456,10 +12482,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>609</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>610</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>225</v>
@@ -11467,10 +12493,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>225</v>
@@ -11478,10 +12504,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>225</v>
@@ -11489,10 +12515,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>225</v>
@@ -11500,10 +12526,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>225</v>
@@ -11511,10 +12537,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>225</v>
@@ -11522,10 +12548,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>225</v>
@@ -11533,10 +12559,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>225</v>
@@ -11544,10 +12570,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>225</v>
@@ -11555,10 +12581,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>225</v>
@@ -11566,10 +12592,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>225</v>
@@ -11577,10 +12603,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>225</v>
@@ -11588,10 +12614,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>225</v>
@@ -11599,10 +12625,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>225</v>
@@ -11610,10 +12636,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>225</v>
@@ -11621,10 +12647,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>225</v>
@@ -11632,10 +12658,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>640</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>641</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>225</v>
@@ -11643,10 +12669,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>225</v>
@@ -11654,10 +12680,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>225</v>
@@ -11665,10 +12691,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>225</v>
@@ -11676,10 +12702,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>225</v>
@@ -11687,10 +12713,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>647</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>648</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>225</v>
@@ -11698,10 +12724,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>225</v>
@@ -11709,10 +12735,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>225</v>
@@ -11720,10 +12746,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>225</v>
@@ -11731,10 +12757,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>225</v>
@@ -11742,10 +12768,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>225</v>
@@ -11753,10 +12779,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>225</v>
@@ -11764,10 +12790,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>225</v>
@@ -11775,10 +12801,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>225</v>
@@ -11786,10 +12812,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>668</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>669</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>225</v>
@@ -11797,10 +12823,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>670</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>671</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>225</v>
@@ -11808,10 +12834,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>673</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>674</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>225</v>
@@ -11819,10 +12845,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>676</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>677</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>225</v>
@@ -11830,10 +12856,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>225</v>
@@ -11841,10 +12867,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>225</v>
@@ -11852,10 +12878,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>225</v>
@@ -11863,10 +12889,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>225</v>
@@ -11874,10 +12900,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>225</v>
@@ -11885,10 +12911,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>225</v>
@@ -11896,10 +12922,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>225</v>
@@ -11907,10 +12933,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>225</v>
@@ -11918,10 +12944,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>225</v>
@@ -11929,10 +12955,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>225</v>
@@ -11940,10 +12966,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>696</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>697</v>
       </c>
       <c r="C95" s="26" t="s">
         <v>225</v>
@@ -11951,10 +12977,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C96" s="26" t="s">
         <v>225</v>
@@ -11962,10 +12988,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>225</v>
@@ -11973,10 +12999,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C98" s="26" t="s">
         <v>225</v>
@@ -11984,10 +13010,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>225</v>
@@ -11995,10 +13021,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>225</v>
@@ -12006,10 +13032,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>225</v>
@@ -12017,10 +13043,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>708</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>709</v>
       </c>
       <c r="C102" s="26" t="s">
         <v>225</v>
@@ -12028,10 +13054,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C103" s="26" t="s">
         <v>225</v>
@@ -12039,10 +13065,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>225</v>
@@ -12050,10 +13076,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>225</v>
@@ -12061,10 +13087,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>225</v>
@@ -12072,10 +13098,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>225</v>
@@ -12083,10 +13109,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C108" s="26" t="s">
         <v>225</v>
@@ -12094,10 +13120,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C109" s="26" t="s">
         <v>225</v>
@@ -12105,10 +13131,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C110" s="26" t="s">
         <v>225</v>
@@ -12116,10 +13142,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>225</v>
@@ -12127,10 +13153,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>225</v>
@@ -12138,10 +13164,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C113" s="26" t="s">
         <v>225</v>
@@ -12149,10 +13175,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C114" s="26" t="s">
         <v>225</v>
@@ -12160,10 +13186,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C115" s="26" t="s">
         <v>225</v>
@@ -12171,10 +13197,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>721</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>722</v>
       </c>
       <c r="C116" s="26" t="s">
         <v>225</v>
@@ -12182,10 +13208,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="27" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C117" s="26" t="s">
         <v>225</v>
@@ -12193,10 +13219,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="27" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C118" s="26" t="s">
         <v>225</v>
@@ -12204,12 +13230,1531 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>732</v>
-      </c>
       <c r="C119" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="C126" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="C135" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C136" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="C137" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="C138" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="C139" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="C140" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="C142" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="C151" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="C152" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="C153" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C156" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="C160" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C161" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="C162" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="C163" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="C164" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C165" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C166" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C167" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C168" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C169" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C170" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="C171" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="C172" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="C173" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="C174" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C175" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="C176" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="C177" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="C178" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="C179" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C180" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="C181" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C183" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="C184" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="C185" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C186" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="C187" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="C189" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C190" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="C191" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="C192" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="C193" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C194" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C195" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C196" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="C197" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C198" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C199" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C200" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="C201" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C202" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="C203" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="C204" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="C205" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="C206" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="C207" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="C208" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="C209" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C210" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="C211" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="C212" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="C213" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="C214" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="C215" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="C216" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C217" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="C218" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="C219" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="C220" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="C221" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="C222" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="C223" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C224" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C225" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C226" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="9" t="s">
+        <v>944</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="C227" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="14" t="s">
+        <v>946</v>
+      </c>
+      <c r="B228" s="14" t="s">
+        <v>983</v>
+      </c>
+      <c r="C228" s="34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="29" t="s">
+        <v>946</v>
+      </c>
+      <c r="B229" s="29" t="s">
+        <v>984</v>
+      </c>
+      <c r="C229" s="33"/>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="29" t="s">
+        <v>946</v>
+      </c>
+      <c r="B230" s="29" t="s">
+        <v>985</v>
+      </c>
+      <c r="C230" s="33"/>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="29" t="s">
+        <v>946</v>
+      </c>
+      <c r="B231" s="29" t="s">
+        <v>986</v>
+      </c>
+      <c r="C231" s="33"/>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="29" t="s">
+        <v>946</v>
+      </c>
+      <c r="B232" s="29" t="s">
+        <v>987</v>
+      </c>
+      <c r="C232" s="33"/>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="29" t="s">
+        <v>946</v>
+      </c>
+      <c r="B233" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="C233" s="33"/>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="14" t="s">
+        <v>946</v>
+      </c>
+      <c r="B234" s="14" t="s">
+        <v>989</v>
+      </c>
+      <c r="C234" s="34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="14" t="s">
+        <v>946</v>
+      </c>
+      <c r="B235" s="14" t="s">
+        <v>990</v>
+      </c>
+      <c r="C235" s="34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="14" t="s">
+        <v>946</v>
+      </c>
+      <c r="B236" s="14" t="s">
+        <v>991</v>
+      </c>
+      <c r="C236" s="34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C237" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="C238" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="C239" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="C240" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C241" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C242" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="C243" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="C244" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C245" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="C246" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C247" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="C248" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="C249" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="C250" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="C251" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>971</v>
+      </c>
+      <c r="C252" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="C253" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="C254" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="C255" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>980</v>
+      </c>
+      <c r="C256" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="C257" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="C258" s="26" t="s">
         <v>225</v>
       </c>
     </row>
@@ -12224,24 +14769,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="63.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="71.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>542</v>
       </c>
@@ -12249,19 +14795,22 @@
         <v>543</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>552</v>
+        <v>738</v>
       </c>
       <c r="E1" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1">
+    <row r="2" spans="1:7" ht="15.75" thickTop="1">
       <c r="A2" s="17" t="s">
         <v>551</v>
       </c>
@@ -12269,1336 +14818,4114 @@
         <v>548</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="14" t="s">
         <v>556</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="14" t="s">
-        <v>557</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>546</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="D3" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30">
+    </row>
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="75">
+      <c r="A6" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>563</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="75">
-      <c r="A6" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>563</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="C10" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="24" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>589</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="C11" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="24" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="24" t="s">
-        <v>594</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="B12" s="24" t="s">
         <v>590</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C12" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="F12" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>597</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="24" t="s">
-        <v>594</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>591</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>596</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="24" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>596</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>600</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="D13" s="24"/>
       <c r="E13" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="150">
+      <c r="A14" s="9" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="150">
-      <c r="A14" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="24" t="s">
         <v>603</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="F14" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="E14" s="14" t="s">
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30">
+      <c r="A25" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45">
+      <c r="A27" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="24" t="s">
+        <v>639</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="24" t="s">
+        <v>646</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30">
+      <c r="A34" s="24" t="s">
+        <v>646</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="24" t="s">
+        <v>646</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="24" t="s">
+        <v>646</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="60">
+      <c r="A37" s="24" t="s">
+        <v>662</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30">
+      <c r="A38" s="24" t="s">
+        <v>662</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="24" t="s">
+        <v>672</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="24" t="s">
+        <v>675</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>676</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>682</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="24" t="s">
+        <v>685</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="24" t="s">
+        <v>685</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="24" t="s">
+        <v>685</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="24" t="s">
+        <v>685</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D52" s="24"/>
+      <c r="E52" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="24" t="s">
+        <v>685</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D53" s="24"/>
+      <c r="E53" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="24" t="s">
+        <v>695</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>696</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="24" t="s">
+        <v>698</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="24" t="s">
+        <v>700</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="24" t="s">
+        <v>702</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="24" t="s">
+        <v>704</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D59" s="24"/>
+      <c r="E59" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="24" t="s">
+        <v>706</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>708</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D61" s="24"/>
+      <c r="E61" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D62" s="24"/>
+      <c r="E62" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>708</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D64" s="24"/>
+      <c r="E64" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>721</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>723</v>
+      </c>
+      <c r="D65" s="24"/>
+      <c r="E65" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="60">
+      <c r="A66" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>721</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>723</v>
+      </c>
+      <c r="D67" s="24"/>
+      <c r="E67" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="22" t="s">
+        <v>730</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>731</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="24" t="s">
+        <v>735</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>736</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>742</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>745</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>756</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>755</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>756</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>755</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="24" t="s">
+        <v>762</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>770</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="135">
+      <c r="A76" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>770</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D76" s="28"/>
+      <c r="E76" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>770</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D77" s="24"/>
+      <c r="E77" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>779</v>
+      </c>
+      <c r="D79" s="24"/>
+      <c r="E79" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>779</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>779</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>786</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="285">
+      <c r="A82" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="D82" s="30"/>
+      <c r="E82" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="F82" s="29"/>
+      <c r="G82" s="31" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="270">
+      <c r="A83" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="D83" s="30"/>
+      <c r="E83" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="F83" s="29"/>
+      <c r="G83" s="31" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="60">
+      <c r="A84" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="D84" s="30"/>
+      <c r="E84" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="F84" s="29"/>
+      <c r="G84" s="31" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="258" customHeight="1">
+      <c r="A85" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>796</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="D85" s="30"/>
+      <c r="E85" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="F85" s="29"/>
+      <c r="G85" s="31" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="45">
+      <c r="A86" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="D86" s="30"/>
+      <c r="E86" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="F86" s="29"/>
+      <c r="G86" s="31" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>723</v>
+      </c>
+      <c r="D87" s="24"/>
+      <c r="E87" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D88" s="24"/>
+      <c r="E88" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D89" s="24"/>
+      <c r="E89" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>811</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D90" s="24"/>
+      <c r="E90" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="165">
+      <c r="A91" s="30" t="s">
+        <v>813</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="D91" s="30"/>
+      <c r="E91" s="29" t="s">
+        <v>816</v>
+      </c>
+      <c r="F91" s="29"/>
+      <c r="G91" s="31" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="150">
+      <c r="A92" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="D92" s="30"/>
+      <c r="E92" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="F92" s="29"/>
+      <c r="G92" s="31" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="24" t="s">
+        <v>821</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D93" s="24"/>
+      <c r="E93" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="G93" s="21" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="24" t="s">
+        <v>821</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D94" s="24"/>
+      <c r="E94" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="24" t="s">
+        <v>821</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D95" s="24"/>
+      <c r="E95" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="24" t="s">
+        <v>821</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D96" s="24"/>
+      <c r="E96" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>831</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D97" s="24"/>
+      <c r="E97" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="G97" s="21" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D98" s="24"/>
+      <c r="E98" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D99" s="24"/>
+      <c r="E99" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D100" s="24"/>
+      <c r="E100" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>831</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="24" t="s">
+        <v>832</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>833</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="24" t="s">
+        <v>832</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>833</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="G102" s="21" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="24" t="s">
+        <v>832</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>833</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G103" s="21" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="24" t="s">
+        <v>832</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>833</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="G104" s="21" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>836</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="G105" s="21" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>836</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G106" s="21" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>836</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="G107" s="21" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>836</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>838</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>838</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>838</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="G111" s="21" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="D112" s="24" t="s">
+        <v>838</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="G112" s="21" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="24" t="s">
+        <v>840</v>
+      </c>
+      <c r="B113" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>842</v>
+      </c>
+      <c r="D113" s="24"/>
+      <c r="E113" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="G113" s="21" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="24" t="s">
+        <v>840</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>845</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D114" s="24"/>
+      <c r="E114" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G114" s="21" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="24" t="s">
+        <v>840</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>845</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D115" s="24"/>
+      <c r="E115" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G115" s="21" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>845</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>847</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G116" s="21" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>845</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>847</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G117" s="21" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>849</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G118" s="21" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>849</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G119" s="21" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="B120" s="24" t="s">
+        <v>712</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>842</v>
+      </c>
+      <c r="D120" s="24"/>
+      <c r="E120" s="14" t="s">
+        <v>850</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="G120" s="21" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>842</v>
+      </c>
+      <c r="D121" s="24"/>
+      <c r="E121" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="G121" s="21" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>845</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D122" s="24"/>
+      <c r="E122" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G122" s="21" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>845</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D123" s="24"/>
+      <c r="E123" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G123" s="21" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D124" s="24"/>
+      <c r="E124" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G124" s="21" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D125" s="24"/>
+      <c r="E125" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G125" s="21" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="45">
+      <c r="A126" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D126" s="24"/>
+      <c r="E126" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G126" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D127" s="24"/>
+      <c r="E127" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G127" s="21" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="45">
+      <c r="A128" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="B128" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D128" s="24"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G128" s="21" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="45">
+      <c r="A129" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D129" s="24"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="G129" s="21" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="45">
+      <c r="A130" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="B130" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D130" s="24"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G130" s="21" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="45">
+      <c r="A131" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>860</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="D131" s="28"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19" t="s">
+        <v>863</v>
+      </c>
+      <c r="G131" s="13" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="75">
+      <c r="A132" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="B132" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="D132" s="24"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G132" s="21" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="75">
+      <c r="A133" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="B133" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="D133" s="24"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="G133" s="21" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="B134" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="D134" s="24"/>
+      <c r="E134" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="G134" s="21" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="B135" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="D135" s="24"/>
+      <c r="E135" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="G135" s="21" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="45">
+      <c r="A136" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="B136" s="24" t="s">
+        <v>872</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="D136" s="24"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G136" s="21" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="45">
+      <c r="A137" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="B137" s="24" t="s">
+        <v>872</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="D137" s="24"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="G137" s="21" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="B138" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D138" s="24"/>
+      <c r="E138" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="G138" s="21" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>878</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="G139" s="21" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="B140" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D140" s="24"/>
+      <c r="E140" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="G140" s="21" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="B141" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D141" s="24"/>
+      <c r="E141" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="G141" s="21" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="B142" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D142" s="24"/>
+      <c r="E142" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G142" s="21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="B143" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D143" s="24"/>
+      <c r="E143" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="G143" s="21" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="B144" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="C144" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D144" s="24"/>
+      <c r="E144" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G144" s="21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="B145" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D145" s="24"/>
+      <c r="E145" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="G145" s="21" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="30">
+      <c r="A146" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="B146" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D146" s="24"/>
+      <c r="E146" s="14" t="s">
+        <v>902</v>
+      </c>
+      <c r="F146" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>611</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="G146" s="21" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="105">
+      <c r="A147" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="B147" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D147" s="24"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="G147" s="21" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="105">
+      <c r="A148" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="B148" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="C148" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D148" s="24"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G148" s="21" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="B149" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D149" s="24"/>
+      <c r="E149" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F149" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>611</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="G149" s="21" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="B150" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="C150" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D150" s="24"/>
+      <c r="E150" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="F150" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="G150" s="21" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="30">
+      <c r="A151" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D151" s="22"/>
+      <c r="E151" s="14" t="s">
+        <v>916</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>919</v>
+      </c>
+      <c r="G151" s="21" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="30">
+      <c r="A152" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D152" s="32"/>
+      <c r="E152" s="14" t="s">
+        <v>916</v>
+      </c>
+      <c r="F152" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="60">
+      <c r="A153" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D153" s="32"/>
+      <c r="E153" s="14" t="s">
+        <v>916</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>920</v>
+      </c>
+      <c r="G153" s="21" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="60">
+      <c r="A154" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D154" s="32"/>
+      <c r="E154" s="14" t="s">
+        <v>916</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="G154" s="21" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="B155" s="22" t="s">
+        <v>915</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D155" s="22"/>
+      <c r="E155" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="G155" s="21" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="B156" s="22" t="s">
+        <v>915</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D156" s="22"/>
+      <c r="E156" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="F156" s="19" t="s">
+        <v>930</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="B157" s="22" t="s">
+        <v>915</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D157" s="22"/>
+      <c r="E157" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="F157" s="19" t="s">
+        <v>931</v>
+      </c>
+      <c r="G157" s="13" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="60">
+      <c r="A158" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>915</v>
+      </c>
+      <c r="C158" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D158" s="22"/>
+      <c r="E158" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>920</v>
+      </c>
+      <c r="G158" s="21" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A159" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="B159" s="22" t="s">
+        <v>915</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D159" s="22"/>
+      <c r="E159" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="G159" s="21" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="B160" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="D160" s="22"/>
+      <c r="E160" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="G160" s="21" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="45">
+      <c r="A161" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="B161" s="22" t="s">
+        <v>934</v>
+      </c>
+      <c r="C161" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="D161" s="22"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="14" t="s">
+        <v>934</v>
+      </c>
+      <c r="G161" s="21" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="B162" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="D162" s="22"/>
+      <c r="E162" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="G162" s="21" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="B163" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="D163" s="22"/>
+      <c r="E163" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="G163" s="21" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="90">
+      <c r="A164" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D164" s="22"/>
+      <c r="E164" s="14" t="s">
+        <v>940</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="G164" s="21" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="90">
+      <c r="A165" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="B165" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D165" s="22"/>
+      <c r="E165" s="14" t="s">
+        <v>940</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="G165" s="21" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="B166" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="D166" s="22"/>
+      <c r="E166" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="G166" s="21" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="B167" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="D167" s="22"/>
+      <c r="E167" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="F167" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G167" s="21" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="75">
+      <c r="A168" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="B168" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D168" s="22"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14" t="s">
+        <v>952</v>
+      </c>
+      <c r="G168" s="21" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="75">
+      <c r="A169" s="18" t="s">
+        <v>947</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="C169" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="D169" s="22"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>611</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>611</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>616</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="B20" s="24" t="s">
+      <c r="G169" s="21" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="B170" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="C170" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="D170" s="22"/>
+      <c r="E170" s="14" t="s">
+        <v>954</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>956</v>
+      </c>
+      <c r="G170" s="21" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="B171" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="D171" s="22"/>
+      <c r="E171" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="F171" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="G171" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="F20" s="21" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>588</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>627</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>571</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>633</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="45">
-      <c r="A27" s="24" t="s">
-        <v>628</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="24" t="s">
-        <v>628</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>622</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="24" t="s">
-        <v>628</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>588</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="24" t="s">
-        <v>628</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>627</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="24" t="s">
-        <v>628</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>638</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="24" t="s">
-        <v>640</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="24" t="s">
-        <v>647</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>652</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="24" t="s">
-        <v>647</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>655</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>659</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="24" t="s">
-        <v>647</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>655</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>660</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="24" t="s">
-        <v>647</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>661</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="60">
-      <c r="A37" s="24" t="s">
-        <v>663</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30">
-      <c r="A38" s="24" t="s">
-        <v>663</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>666</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="24" t="s">
-        <v>670</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>671</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="24" t="s">
-        <v>673</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>674</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="24" t="s">
-        <v>676</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>677</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="24" t="s">
-        <v>679</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>680</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="24" t="s">
-        <v>679</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>680</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="24" t="s">
-        <v>679</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>622</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="24" t="s">
-        <v>679</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>683</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>680</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>680</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>571</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>633</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="24" t="s">
-        <v>686</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="24" t="s">
-        <v>686</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>622</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="24" t="s">
-        <v>686</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>638</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>691</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>694</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="24" t="s">
-        <v>686</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>638</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>691</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="24" t="s">
-        <v>686</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>627</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="24" t="s">
-        <v>696</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>697</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="24" t="s">
-        <v>699</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="24" t="s">
-        <v>701</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="24" t="s">
-        <v>702</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="24" t="s">
-        <v>703</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="24" t="s">
-        <v>705</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="24" t="s">
-        <v>707</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="24" t="s">
-        <v>708</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>709</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>710</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="24" t="s">
-        <v>708</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>718</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="24" t="s">
-        <v>720</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>709</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>710</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="24" t="s">
-        <v>720</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>718</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="24" t="s">
-        <v>721</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>722</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>724</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>723</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="60">
-      <c r="A66" s="24" t="s">
-        <v>721</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>722</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>571</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>726</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="22" t="s">
-        <v>721</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>730</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>724</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>723</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="22" t="s">
-        <v>731</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>732</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>604</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>733</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>735</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>734</v>
+    </row>
+    <row r="172" spans="1:7" ht="45">
+      <c r="A172" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="B172" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="D172" s="22"/>
+      <c r="E172" s="14" t="s">
+        <v>959</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G172" s="21" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D173" s="22"/>
+      <c r="E173" s="14" t="s">
+        <v>962</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>964</v>
+      </c>
+      <c r="G173" s="21" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="45">
+      <c r="A174" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="B174" s="22" t="s">
+        <v>965</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D174" s="22"/>
+      <c r="E174" s="14"/>
+      <c r="F174" s="14" t="s">
+        <v>965</v>
+      </c>
+      <c r="G174" s="21" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="30">
+      <c r="A175" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="B175" s="22" t="s">
+        <v>967</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="D175" s="22"/>
+      <c r="E175" s="14" t="s">
+        <v>968</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>969</v>
+      </c>
+      <c r="G175" s="21" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="30">
+      <c r="A176" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="B176" s="22" t="s">
+        <v>967</v>
+      </c>
+      <c r="C176" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="D176" s="22"/>
+      <c r="E176" s="14" t="s">
+        <v>968</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="G176" s="21" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="B177" s="22" t="s">
+        <v>971</v>
+      </c>
+      <c r="C177" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D177" s="22"/>
+      <c r="E177" s="14" t="s">
+        <v>972</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="G177" s="21" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="30">
+      <c r="A178" s="22" t="s">
+        <v>974</v>
+      </c>
+      <c r="B178" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="C178" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D178" s="22"/>
+      <c r="E178" s="14" t="s">
+        <v>976</v>
+      </c>
+      <c r="F178" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G178" s="21" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="B179" s="24" t="s">
+        <v>983</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>992</v>
+      </c>
+      <c r="D179" s="24"/>
+      <c r="E179" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="F179" s="14" t="s">
+        <v>994</v>
+      </c>
+      <c r="G179" s="21" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="60">
+      <c r="A180" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="B180" s="24" t="s">
+        <v>983</v>
+      </c>
+      <c r="C180" s="24" t="s">
+        <v>992</v>
+      </c>
+      <c r="D180" s="24"/>
+      <c r="E180" s="14" t="s">
+        <v>996</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>919</v>
+      </c>
+      <c r="G180" s="21" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="60">
+      <c r="A181" s="23" t="s">
+        <v>946</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="C181" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D181" s="28"/>
+      <c r="E181" s="19" t="s">
+        <v>998</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>919</v>
+      </c>
+      <c r="G181" s="13" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="60">
+      <c r="A182" s="23" t="s">
+        <v>946</v>
+      </c>
+      <c r="B182" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="C182" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D182" s="24"/>
+      <c r="E182" s="19" t="s">
+        <v>998</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G182" s="21" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="23" t="s">
+        <v>946</v>
+      </c>
+      <c r="B183" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="C183" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D183" s="24"/>
+      <c r="E183" s="14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F183" s="14" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G183" s="21" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="23" t="s">
+        <v>946</v>
+      </c>
+      <c r="B184" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="C184" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D184" s="24"/>
+      <c r="E184" s="14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G184" s="21" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="135">
+      <c r="A185" s="23" t="s">
+        <v>946</v>
+      </c>
+      <c r="B185" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="C185" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D185" s="24"/>
+      <c r="E185" s="14" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F185" s="14" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G185" s="21" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="135">
+      <c r="A186" s="23" t="s">
+        <v>946</v>
+      </c>
+      <c r="B186" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="C186" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D186" s="24"/>
+      <c r="E186" s="14" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G186" s="21" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="135">
+      <c r="A187" s="23" t="s">
+        <v>946</v>
+      </c>
+      <c r="B187" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="C187" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D187" s="24"/>
+      <c r="E187" s="14" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F187" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G187" s="21" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="135">
+      <c r="A188" s="23" t="s">
+        <v>946</v>
+      </c>
+      <c r="B188" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="C188" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D188" s="24"/>
+      <c r="E188" s="14" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F188" s="14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G188" s="21" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="135">
+      <c r="A189" s="23" t="s">
+        <v>946</v>
+      </c>
+      <c r="B189" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="C189" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D189" s="24"/>
+      <c r="E189" s="14" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G189" s="21" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="B190" s="24" t="s">
+        <v>989</v>
+      </c>
+      <c r="C190" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D190" s="24"/>
+      <c r="E190" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G190" s="21" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="B191" s="24" t="s">
+        <v>989</v>
+      </c>
+      <c r="C191" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D191" s="24"/>
+      <c r="E191" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F191" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="G191" s="21" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="B192" s="24" t="s">
+        <v>989</v>
+      </c>
+      <c r="C192" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D192" s="24"/>
+      <c r="E192" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F192" s="14" t="s">
+        <v>994</v>
+      </c>
+      <c r="G192" s="21" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="B193" s="24" t="s">
+        <v>990</v>
+      </c>
+      <c r="C193" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D193" s="24"/>
+      <c r="E193" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F193" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G193" s="21" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="B194" s="24" t="s">
+        <v>990</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D194" s="24"/>
+      <c r="E194" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F194" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G194" s="21" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="B195" s="24" t="s">
+        <v>990</v>
+      </c>
+      <c r="C195" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D195" s="24"/>
+      <c r="E195" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F195" s="14" t="s">
+        <v>994</v>
+      </c>
+      <c r="G195" s="21" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="30">
+      <c r="A196" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="B196" s="24" t="s">
+        <v>991</v>
+      </c>
+      <c r="C196" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D196" s="24"/>
+      <c r="E196" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F196" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G196" s="21" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="30">
+      <c r="A197" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="B197" s="24" t="s">
+        <v>991</v>
+      </c>
+      <c r="C197" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D197" s="28"/>
+      <c r="E197" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F197" s="14" t="s">
+        <v>994</v>
+      </c>
+      <c r="G197" s="13" t="s">
+        <v>1021</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Planilhas/View_Report_MIS.xlsx
+++ b/Documentação/Planilhas/View_Report_MIS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="17235" windowHeight="2895" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="17235" windowHeight="2895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4182" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4317" uniqueCount="1027">
   <si>
     <t>TABLE_CATALOG</t>
   </si>
@@ -3301,12 +3301,27 @@
     <t>select case when @IdCategoria_Child = 0 then -1 else null end IdCategoria, 
 case when @IdCategoria_Child = 0 then 'Todos' else null end as Nome) a</t>
   </si>
+  <si>
+    <t>Verificar</t>
+  </si>
+  <si>
+    <t>Mudou</t>
+  </si>
+  <si>
+    <t>Verificar ETL</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Mduou</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3335,6 +3350,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3350,7 +3372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3418,11 +3440,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3524,18 +3568,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3549,40 +3592,6 @@
           <color theme="0"/>
         </left>
         <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3749,6 +3758,62 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3835,7 +3900,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F206" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F206" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="A1:F206">
     <filterColumn colId="4">
       <filters blank="1"/>
@@ -3855,42 +3920,43 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G198" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G198" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:G198"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Database" dataDxfId="21"/>
-    <tableColumn id="2" name="Schema" dataDxfId="20"/>
-    <tableColumn id="3" name="View" dataDxfId="19"/>
-    <tableColumn id="4" name="Tabela Fisica" dataDxfId="18"/>
-    <tableColumn id="5" name="Atributo Condicional Hard-Code" dataDxfId="17"/>
-    <tableColumn id="6" name="Script Hard-Code" dataDxfId="16"/>
-    <tableColumn id="7" name="Observação" dataDxfId="15"/>
+    <tableColumn id="1" name="Database" dataDxfId="22"/>
+    <tableColumn id="2" name="Schema" dataDxfId="21"/>
+    <tableColumn id="3" name="View" dataDxfId="20"/>
+    <tableColumn id="4" name="Tabela Fisica" dataDxfId="19"/>
+    <tableColumn id="5" name="Atributo Condicional Hard-Code" dataDxfId="18"/>
+    <tableColumn id="6" name="Script Hard-Code" dataDxfId="17"/>
+    <tableColumn id="7" name="Observação" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela24" displayName="Tabela24" ref="A1:C258" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela24" displayName="Tabela24" ref="A1:C258" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <tableColumns count="3">
-    <tableColumn id="1" name="REPORT" dataDxfId="12"/>
-    <tableColumn id="2" name="Dataset" dataDxfId="11"/>
-    <tableColumn id="3" name="Verificado" dataDxfId="10"/>
+    <tableColumn id="1" name="REPORT" dataDxfId="13"/>
+    <tableColumn id="2" name="Dataset" dataDxfId="12"/>
+    <tableColumn id="3" name="Verificado" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:G197" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowBorderDxfId="0">
-  <tableColumns count="7">
-    <tableColumn id="1" name="REPORT" dataDxfId="9"/>
-    <tableColumn id="2" name="Dataset" dataDxfId="8"/>
-    <tableColumn id="3" name="Data Source" dataDxfId="7"/>
-    <tableColumn id="7" name="Stored Procedure" dataDxfId="6"/>
-    <tableColumn id="4" name="Tabela Física / Stored Procedure" dataDxfId="5"/>
-    <tableColumn id="5" name="Atributo Condicional Hard-Code" dataDxfId="4"/>
-    <tableColumn id="6" name="Script Hard-Code" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:H197" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+  <tableColumns count="8">
+    <tableColumn id="1" name="REPORT" dataDxfId="7"/>
+    <tableColumn id="2" name="Dataset" dataDxfId="6"/>
+    <tableColumn id="3" name="Data Source" dataDxfId="5"/>
+    <tableColumn id="7" name="Stored Procedure" dataDxfId="4"/>
+    <tableColumn id="4" name="Tabela Física / Stored Procedure" dataDxfId="3"/>
+    <tableColumn id="5" name="Atributo Condicional Hard-Code" dataDxfId="2"/>
+    <tableColumn id="6" name="Script Hard-Code" dataDxfId="1"/>
+    <tableColumn id="8" name="Obs" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7759,9 +7825,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8044,7 +8110,9 @@
       <c r="F13" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9" t="s">
@@ -8086,7 +8154,9 @@
       <c r="F15" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="2" t="s">
@@ -8128,7 +8198,9 @@
       <c r="F17" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="9" t="s">
@@ -8149,7 +8221,9 @@
       <c r="F18" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="A19" s="9" t="s">
@@ -8170,7 +8244,9 @@
       <c r="F19" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" s="9" t="s">
@@ -8191,7 +8267,9 @@
       <c r="F20" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="45">
       <c r="A21" s="9" t="s">
@@ -8212,7 +8290,9 @@
       <c r="F21" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="30">
       <c r="A22" s="9" t="s">
@@ -8233,7 +8313,9 @@
       <c r="F22" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -8254,7 +8336,9 @@
       <c r="F23" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="9" t="s">
@@ -8275,7 +8359,9 @@
       <c r="F24" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="9" t="s">
@@ -8296,7 +8382,9 @@
       <c r="F25" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="9" t="s">
@@ -8317,7 +8405,9 @@
       <c r="F26" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="G26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
@@ -8338,7 +8428,9 @@
       <c r="F27" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="G27" s="10"/>
+      <c r="G27" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="60">
       <c r="A28" s="9" t="s">
@@ -8359,7 +8451,9 @@
       <c r="F28" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="G28" s="10"/>
+      <c r="G28" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="9" t="s">
@@ -8527,7 +8621,9 @@
       <c r="F36" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="G36" s="10"/>
+      <c r="G36" s="10" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="9" t="s">
@@ -8548,7 +8644,9 @@
       <c r="F37" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="G37" s="10"/>
+      <c r="G37" s="10" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="9" t="s">
@@ -8569,7 +8667,9 @@
       <c r="F38" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="G38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="9" t="s">
@@ -8632,7 +8732,9 @@
       <c r="F41" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G41" s="10"/>
+      <c r="G41" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="45">
       <c r="A42" s="9" t="s">
@@ -8653,7 +8755,9 @@
       <c r="F42" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="G42" s="10"/>
+      <c r="G42" s="10" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="45">
       <c r="A43" s="9" t="s">
@@ -8695,7 +8799,9 @@
       <c r="F44" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="G44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="9" t="s">
@@ -8758,7 +8864,9 @@
       <c r="F47" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="G47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="9" t="s">
@@ -8779,7 +8887,9 @@
       <c r="F48" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="G48" s="10"/>
+      <c r="G48" s="10" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="9" t="s">
@@ -8800,7 +8910,9 @@
       <c r="F49" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="G49" s="10"/>
+      <c r="G49" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="9" t="s">
@@ -9262,7 +9374,9 @@
       <c r="F71" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="G71" s="10"/>
+      <c r="G71" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
@@ -9283,7 +9397,9 @@
       <c r="F72" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="G72" s="10"/>
+      <c r="G72" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
@@ -9304,7 +9420,9 @@
       <c r="F73" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="G73" s="10"/>
+      <c r="G73" s="10" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
@@ -9325,7 +9443,9 @@
       <c r="F74" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="G74" s="10"/>
+      <c r="G74" s="10" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
@@ -9346,7 +9466,9 @@
       <c r="F75" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="G75" s="10"/>
+      <c r="G75" s="10" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
@@ -9367,7 +9489,9 @@
       <c r="F76" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="G76" s="10"/>
+      <c r="G76" s="10" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
@@ -9388,7 +9512,9 @@
       <c r="F77" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="G77" s="10"/>
+      <c r="G77" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
@@ -9430,7 +9556,9 @@
       <c r="F79" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="G79" s="10"/>
+      <c r="G79" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
@@ -9451,7 +9579,9 @@
       <c r="F80" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="G80" s="10"/>
+      <c r="G80" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
@@ -9472,7 +9602,9 @@
       <c r="F81" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="G81" s="10"/>
+      <c r="G81" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
@@ -9556,7 +9688,9 @@
       <c r="F85" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="G85" s="10"/>
+      <c r="G85" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="86" spans="1:7" ht="150">
       <c r="A86" s="2" t="s">
@@ -9577,7 +9711,9 @@
       <c r="F86" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="G86" s="10"/>
+      <c r="G86" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="87" spans="1:7" ht="150">
       <c r="A87" s="2" t="s">
@@ -9598,7 +9734,9 @@
       <c r="F87" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="G87" s="10"/>
+      <c r="G87" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="88" spans="1:7" ht="150">
       <c r="A88" s="2" t="s">
@@ -9619,7 +9757,9 @@
       <c r="F88" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="G88" s="10"/>
+      <c r="G88" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="89" spans="1:7" ht="150">
       <c r="A89" s="2" t="s">
@@ -9640,7 +9780,9 @@
       <c r="F89" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="G89" s="10"/>
+      <c r="G89" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="90" spans="1:7" ht="150">
       <c r="A90" s="2" t="s">
@@ -9661,7 +9803,9 @@
       <c r="F90" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="G90" s="10"/>
+      <c r="G90" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2" t="s">
@@ -9682,7 +9826,9 @@
       <c r="F91" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="G91" s="10"/>
+      <c r="G91" s="10" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
@@ -9703,7 +9849,9 @@
       <c r="F92" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="G92" s="10"/>
+      <c r="G92" s="10" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="9" t="s">
@@ -9745,7 +9893,9 @@
       <c r="F94" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="G94" s="10"/>
+      <c r="G94" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="9" t="s">
@@ -9968,7 +10118,9 @@
       <c r="F105" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="G105" s="10"/>
+      <c r="G105" s="10" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2" t="s">
@@ -9989,6 +10141,9 @@
       <c r="F106" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="G106" s="10" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2" t="s">
@@ -10009,6 +10164,9 @@
       <c r="F107" s="1" t="s">
         <v>401</v>
       </c>
+      <c r="G107" s="10" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2" t="s">
@@ -10029,6 +10187,9 @@
       <c r="F108" s="1" t="s">
         <v>402</v>
       </c>
+      <c r="G108" s="10" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2" t="s">
@@ -10049,6 +10210,9 @@
       <c r="F109" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="G109" s="10" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
@@ -10069,6 +10233,9 @@
       <c r="F110" s="1" t="s">
         <v>404</v>
       </c>
+      <c r="G110" s="10" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2" t="s">
@@ -10089,6 +10256,9 @@
       <c r="F111" s="1" t="s">
         <v>405</v>
       </c>
+      <c r="G111" s="10" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2" t="s">
@@ -10109,6 +10279,9 @@
       <c r="F112" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="G112" s="10" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
@@ -10129,6 +10302,9 @@
       <c r="F113" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="G113" s="10" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2" t="s">
@@ -10149,6 +10325,9 @@
       <c r="F114" s="1" t="s">
         <v>422</v>
       </c>
+      <c r="G114" s="10" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2" t="s">
@@ -10675,7 +10854,9 @@
       <c r="F140" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="G140" s="10"/>
+      <c r="G140" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2" t="s">
@@ -10696,6 +10877,9 @@
       <c r="F141" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="G141" s="1" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2" t="s">
@@ -10716,6 +10900,9 @@
       <c r="F142" s="1" t="s">
         <v>447</v>
       </c>
+      <c r="G142" s="1" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2" t="s">
@@ -10757,7 +10944,9 @@
       <c r="F144" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="G144" s="10"/>
+      <c r="G144" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2" t="s">
@@ -10778,6 +10967,9 @@
       <c r="F145" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="G145" s="1" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2" t="s">
@@ -10798,6 +10990,9 @@
       <c r="F146" s="1" t="s">
         <v>447</v>
       </c>
+      <c r="G146" s="1" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2" t="s">
@@ -10859,6 +11054,9 @@
       <c r="F149" s="1" t="s">
         <v>445</v>
       </c>
+      <c r="G149" s="1" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2" t="s">
@@ -10879,6 +11077,9 @@
       <c r="F150" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="G150" s="1" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2" t="s">
@@ -10899,7 +11100,9 @@
       <c r="F151" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="G151" s="10"/>
+      <c r="G151" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2" t="s">
@@ -10961,6 +11164,9 @@
       <c r="F154" s="1" t="s">
         <v>445</v>
       </c>
+      <c r="G154" s="1" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2" t="s">
@@ -10981,6 +11187,9 @@
       <c r="F155" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="G155" s="1" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2" t="s">
@@ -11001,7 +11210,9 @@
       <c r="F156" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="G156" s="10"/>
+      <c r="G156" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2" t="s">
@@ -11043,6 +11254,9 @@
       <c r="F158" s="1" t="s">
         <v>445</v>
       </c>
+      <c r="G158" s="1" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2" t="s">
@@ -11063,6 +11277,9 @@
       <c r="F159" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="G159" s="1" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2" t="s">
@@ -11083,7 +11300,9 @@
       <c r="F160" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="G160" s="10"/>
+      <c r="G160" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2" t="s">
@@ -11167,7 +11386,9 @@
       <c r="F164" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="G164" s="10"/>
+      <c r="G164" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2" t="s">
@@ -11188,7 +11409,9 @@
       <c r="F165" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="G165" s="10"/>
+      <c r="G165" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2" t="s">
@@ -11272,7 +11495,9 @@
       <c r="F169" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="G169" s="10"/>
+      <c r="G169" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="12" t="s">
@@ -11419,7 +11644,9 @@
       <c r="F176" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="G176" s="10"/>
+      <c r="G176" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="12" t="s">
@@ -11440,7 +11667,9 @@
       <c r="F177" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="G177" s="10"/>
+      <c r="G177" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="12" t="s">
@@ -11461,7 +11690,9 @@
       <c r="F178" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="G178" s="10"/>
+      <c r="G178" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="12" t="s">
@@ -11482,6 +11713,9 @@
       <c r="F179" s="1" t="s">
         <v>493</v>
       </c>
+      <c r="G179" s="1" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="12" t="s">
@@ -11502,7 +11736,9 @@
       <c r="F180" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="G180" s="10"/>
+      <c r="G180" s="10" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="181" spans="1:7" ht="60">
       <c r="A181" s="12" t="s">
@@ -11632,7 +11868,9 @@
       <c r="F186" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="G186" s="10"/>
+      <c r="G186" s="10" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="12" t="s">
@@ -14769,25 +15007,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H200" sqref="H200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="12" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="12" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="44" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.42578125" style="12" customWidth="1"/>
     <col min="7" max="7" width="71.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>542</v>
       </c>
@@ -14809,8 +15047,11 @@
       <c r="G1" s="16" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1">
+      <c r="H1" s="36" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1">
       <c r="A2" s="17" t="s">
         <v>551</v>
       </c>
@@ -14830,8 +15071,9 @@
       <c r="G2" s="13" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="14" t="s">
         <v>556</v>
       </c>
@@ -14851,8 +15093,9 @@
       <c r="G3" s="21" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="30">
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="20" t="s">
         <v>569</v>
       </c>
@@ -14872,8 +15115,9 @@
       <c r="G4" s="21" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="20" t="s">
         <v>569</v>
       </c>
@@ -14893,8 +15137,9 @@
       <c r="G5" s="21" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="75">
+      <c r="H5" s="35"/>
+    </row>
+    <row r="6" spans="1:8" ht="60">
       <c r="A6" s="20" t="s">
         <v>575</v>
       </c>
@@ -14914,8 +15159,9 @@
       <c r="G6" s="21" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="30">
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" ht="30">
       <c r="A7" s="9" t="s">
         <v>577</v>
       </c>
@@ -14935,8 +15181,9 @@
       <c r="G7" s="21" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="9" t="s">
         <v>577</v>
       </c>
@@ -14956,8 +15203,9 @@
       <c r="G8" s="21" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="9" t="s">
         <v>580</v>
       </c>
@@ -14977,8 +15225,9 @@
       <c r="G9" s="21" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="24" t="s">
         <v>588</v>
       </c>
@@ -14998,8 +15247,9 @@
       <c r="G10" s="21" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="24" t="s">
         <v>593</v>
       </c>
@@ -15019,8 +15269,9 @@
       <c r="G11" s="21" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="24" t="s">
         <v>593</v>
       </c>
@@ -15040,8 +15291,9 @@
       <c r="G12" s="21" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="35"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="24" t="s">
         <v>593</v>
       </c>
@@ -15061,8 +15313,9 @@
       <c r="G13" s="21" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="150">
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:8" ht="105">
       <c r="A14" s="9" t="s">
         <v>601</v>
       </c>
@@ -15082,8 +15335,9 @@
       <c r="G14" s="21" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="24" t="s">
         <v>608</v>
       </c>
@@ -15103,8 +15357,9 @@
       <c r="G15" s="21" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="35"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="24" t="s">
         <v>608</v>
       </c>
@@ -15124,8 +15379,11 @@
       <c r="G16" s="21" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="24" t="s">
         <v>608</v>
       </c>
@@ -15145,8 +15403,11 @@
       <c r="G17" s="13" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="35" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="24" t="s">
         <v>608</v>
       </c>
@@ -15166,8 +15427,11 @@
       <c r="G18" s="13" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="24" t="s">
         <v>608</v>
       </c>
@@ -15187,8 +15451,11 @@
       <c r="G19" s="21" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="35" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="24" t="s">
         <v>608</v>
       </c>
@@ -15208,8 +15475,9 @@
       <c r="G20" s="21" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="24" t="s">
         <v>608</v>
       </c>
@@ -15229,8 +15497,9 @@
       <c r="G21" s="21" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="35"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="24" t="s">
         <v>608</v>
       </c>
@@ -15250,8 +15519,11 @@
       <c r="G22" s="21" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="9" t="s">
         <v>627</v>
       </c>
@@ -15271,8 +15543,9 @@
       <c r="G23" s="21" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="35"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="9" t="s">
         <v>627</v>
       </c>
@@ -15292,8 +15565,11 @@
       <c r="G24" s="21" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="30">
+      <c r="H24" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30">
       <c r="A25" s="9" t="s">
         <v>627</v>
       </c>
@@ -15313,8 +15589,11 @@
       <c r="G25" s="21" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="35" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="9" t="s">
         <v>627</v>
       </c>
@@ -15334,8 +15613,9 @@
       <c r="G26" s="21" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="45">
+      <c r="H26" s="35"/>
+    </row>
+    <row r="27" spans="1:8" ht="30">
       <c r="A27" s="24" t="s">
         <v>627</v>
       </c>
@@ -15355,8 +15635,9 @@
       <c r="G27" s="21" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="35"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="24" t="s">
         <v>627</v>
       </c>
@@ -15376,8 +15657,9 @@
       <c r="G28" s="21" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="35"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="24" t="s">
         <v>627</v>
       </c>
@@ -15397,8 +15679,9 @@
       <c r="G29" s="21" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="35"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="24" t="s">
         <v>627</v>
       </c>
@@ -15418,8 +15701,11 @@
       <c r="G30" s="21" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="24" t="s">
         <v>627</v>
       </c>
@@ -15439,8 +15725,11 @@
       <c r="G31" s="21" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="35" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="24" t="s">
         <v>639</v>
       </c>
@@ -15460,8 +15749,9 @@
       <c r="G32" s="21" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="35"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="24" t="s">
         <v>646</v>
       </c>
@@ -15481,8 +15771,9 @@
       <c r="G33" s="21" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="30">
+      <c r="H33" s="35"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="24" t="s">
         <v>646</v>
       </c>
@@ -15502,8 +15793,9 @@
       <c r="G34" s="21" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="35"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="24" t="s">
         <v>646</v>
       </c>
@@ -15523,8 +15815,9 @@
       <c r="G35" s="13" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="35"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="24" t="s">
         <v>646</v>
       </c>
@@ -15544,8 +15837,9 @@
       <c r="G36" s="21" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="60">
+      <c r="H36" s="35"/>
+    </row>
+    <row r="37" spans="1:8" ht="45">
       <c r="A37" s="24" t="s">
         <v>662</v>
       </c>
@@ -15565,8 +15859,9 @@
       <c r="G37" s="21" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="30">
+      <c r="H37" s="35"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="24" t="s">
         <v>662</v>
       </c>
@@ -15586,8 +15881,11 @@
       <c r="G38" s="21" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="24" t="s">
         <v>669</v>
       </c>
@@ -15607,8 +15905,11 @@
       <c r="G39" s="21" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="24" t="s">
         <v>672</v>
       </c>
@@ -15628,8 +15929,11 @@
       <c r="G40" s="21" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="24" t="s">
         <v>675</v>
       </c>
@@ -15649,8 +15953,11 @@
       <c r="G41" s="21" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="24" t="s">
         <v>678</v>
       </c>
@@ -15670,8 +15977,11 @@
       <c r="G42" s="21" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="35" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="24" t="s">
         <v>678</v>
       </c>
@@ -15691,8 +16001,11 @@
       <c r="G43" s="21" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="35" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="24" t="s">
         <v>678</v>
       </c>
@@ -15712,8 +16025,9 @@
       <c r="G44" s="21" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="35"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="24" t="s">
         <v>678</v>
       </c>
@@ -15733,8 +16047,9 @@
       <c r="G45" s="23" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="35"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="9" t="s">
         <v>685</v>
       </c>
@@ -15754,8 +16069,11 @@
       <c r="G46" s="13" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="35" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="9" t="s">
         <v>685</v>
       </c>
@@ -15775,8 +16093,11 @@
       <c r="G47" s="21" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="35" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="9" t="s">
         <v>685</v>
       </c>
@@ -15796,8 +16117,9 @@
       <c r="G48" s="21" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="35"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="24" t="s">
         <v>685</v>
       </c>
@@ -15817,8 +16139,11 @@
       <c r="G49" s="21" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="35" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="24" t="s">
         <v>685</v>
       </c>
@@ -15838,8 +16163,9 @@
       <c r="G50" s="21" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="35"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="24" t="s">
         <v>685</v>
       </c>
@@ -15859,8 +16185,11 @@
       <c r="G51" s="21" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="35" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="24" t="s">
         <v>685</v>
       </c>
@@ -15880,8 +16209,11 @@
       <c r="G52" s="13" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="35" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="24" t="s">
         <v>685</v>
       </c>
@@ -15901,8 +16233,9 @@
       <c r="G53" s="23" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="35"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="24" t="s">
         <v>695</v>
       </c>
@@ -15922,8 +16255,11 @@
       <c r="G54" s="21" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="24" t="s">
         <v>698</v>
       </c>
@@ -15943,8 +16279,11 @@
       <c r="G55" s="21" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="24" t="s">
         <v>700</v>
       </c>
@@ -15964,8 +16303,11 @@
       <c r="G56" s="21" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="24" t="s">
         <v>701</v>
       </c>
@@ -15985,8 +16327,11 @@
       <c r="G57" s="21" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="24" t="s">
         <v>702</v>
       </c>
@@ -16006,8 +16351,11 @@
       <c r="G58" s="21" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="24" t="s">
         <v>704</v>
       </c>
@@ -16027,8 +16375,11 @@
       <c r="G59" s="21" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="24" t="s">
         <v>706</v>
       </c>
@@ -16048,8 +16399,11 @@
       <c r="G60" s="21" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="24" t="s">
         <v>707</v>
       </c>
@@ -16069,8 +16423,11 @@
       <c r="G61" s="21" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="24" t="s">
         <v>707</v>
       </c>
@@ -16090,8 +16447,9 @@
       <c r="G62" s="21" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" s="35"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="24" t="s">
         <v>719</v>
       </c>
@@ -16111,8 +16469,11 @@
       <c r="G63" s="21" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="24" t="s">
         <v>719</v>
       </c>
@@ -16132,8 +16493,9 @@
       <c r="G64" s="21" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" s="35"/>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="24" t="s">
         <v>720</v>
       </c>
@@ -16153,8 +16515,9 @@
       <c r="G65" s="21" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="60">
+      <c r="H65" s="35"/>
+    </row>
+    <row r="66" spans="1:8" ht="60">
       <c r="A66" s="24" t="s">
         <v>720</v>
       </c>
@@ -16174,8 +16537,9 @@
       <c r="G66" s="21" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" s="35"/>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="22" t="s">
         <v>720</v>
       </c>
@@ -16195,8 +16559,9 @@
       <c r="G67" s="21" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" s="35"/>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="22" t="s">
         <v>730</v>
       </c>
@@ -16216,8 +16581,11 @@
       <c r="G68" s="21" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="24" t="s">
         <v>735</v>
       </c>
@@ -16239,8 +16607,9 @@
       <c r="G69" s="21" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" s="35"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="9" t="s">
         <v>735</v>
       </c>
@@ -16262,8 +16631,9 @@
       <c r="G70" s="21" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" s="35"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="9" t="s">
         <v>735</v>
       </c>
@@ -16285,8 +16655,9 @@
       <c r="G71" s="21" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" s="35"/>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="9" t="s">
         <v>735</v>
       </c>
@@ -16308,8 +16679,9 @@
       <c r="G72" s="21" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" s="35"/>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="9" t="s">
         <v>735</v>
       </c>
@@ -16331,8 +16703,9 @@
       <c r="G73" s="21" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" s="35"/>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="24" t="s">
         <v>762</v>
       </c>
@@ -16352,8 +16725,9 @@
       <c r="G74" s="21" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" s="35"/>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="24" t="s">
         <v>769</v>
       </c>
@@ -16373,8 +16747,9 @@
       <c r="G75" s="21" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="135">
+      <c r="H75" s="35"/>
+    </row>
+    <row r="76" spans="1:8" ht="135">
       <c r="A76" s="24" t="s">
         <v>769</v>
       </c>
@@ -16394,8 +16769,11 @@
       <c r="G76" s="13" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="24" t="s">
         <v>769</v>
       </c>
@@ -16415,8 +16793,9 @@
       <c r="G77" s="21" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" s="35"/>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="24" t="s">
         <v>769</v>
       </c>
@@ -16436,8 +16815,9 @@
       <c r="G78" s="21" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" s="35"/>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="24" t="s">
         <v>776</v>
       </c>
@@ -16457,8 +16837,9 @@
       <c r="G79" s="21" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" s="35"/>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="24" t="s">
         <v>776</v>
       </c>
@@ -16478,8 +16859,11 @@
       <c r="G80" s="21" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="24" t="s">
         <v>776</v>
       </c>
@@ -16499,8 +16883,11 @@
       <c r="G81" s="21" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="285">
+      <c r="H81" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="270">
       <c r="A82" s="29" t="s">
         <v>787</v>
       </c>
@@ -16518,8 +16905,9 @@
       <c r="G82" s="31" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="270">
+      <c r="H82" s="35"/>
+    </row>
+    <row r="83" spans="1:8" ht="255">
       <c r="A83" s="30" t="s">
         <v>787</v>
       </c>
@@ -16537,8 +16925,9 @@
       <c r="G83" s="31" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="60">
+      <c r="H83" s="35"/>
+    </row>
+    <row r="84" spans="1:8" ht="60">
       <c r="A84" s="30" t="s">
         <v>787</v>
       </c>
@@ -16556,8 +16945,9 @@
       <c r="G84" s="31" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="258" customHeight="1">
+      <c r="H84" s="35"/>
+    </row>
+    <row r="85" spans="1:8" ht="258" customHeight="1">
       <c r="A85" s="30" t="s">
         <v>787</v>
       </c>
@@ -16575,8 +16965,9 @@
       <c r="G85" s="31" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="45">
+      <c r="H85" s="35"/>
+    </row>
+    <row r="86" spans="1:8" ht="45">
       <c r="A86" s="30" t="s">
         <v>787</v>
       </c>
@@ -16594,8 +16985,9 @@
       <c r="G86" s="31" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" s="35"/>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="24" t="s">
         <v>800</v>
       </c>
@@ -16615,8 +17007,9 @@
       <c r="G87" s="21" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" s="35"/>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="24" t="s">
         <v>800</v>
       </c>
@@ -16636,8 +17029,9 @@
       <c r="G88" s="21" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" s="35"/>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="24" t="s">
         <v>800</v>
       </c>
@@ -16657,8 +17051,9 @@
       <c r="G89" s="21" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" s="35"/>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="24" t="s">
         <v>800</v>
       </c>
@@ -16678,8 +17073,9 @@
       <c r="G90" s="21" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="165">
+      <c r="H90" s="35"/>
+    </row>
+    <row r="91" spans="1:8" ht="165">
       <c r="A91" s="30" t="s">
         <v>813</v>
       </c>
@@ -16697,8 +17093,9 @@
       <c r="G91" s="31" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="150">
+      <c r="H91" s="35"/>
+    </row>
+    <row r="92" spans="1:8" ht="150">
       <c r="A92" s="30" t="s">
         <v>817</v>
       </c>
@@ -16716,8 +17113,9 @@
       <c r="G92" s="31" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" s="35"/>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="24" t="s">
         <v>821</v>
       </c>
@@ -16737,8 +17135,11 @@
       <c r="G93" s="21" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="24" t="s">
         <v>821</v>
       </c>
@@ -16758,8 +17159,9 @@
       <c r="G94" s="21" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" s="35"/>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="24" t="s">
         <v>821</v>
       </c>
@@ -16779,8 +17181,11 @@
       <c r="G95" s="21" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="24" t="s">
         <v>821</v>
       </c>
@@ -16800,8 +17205,9 @@
       <c r="G96" s="21" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" s="35"/>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="24" t="s">
         <v>825</v>
       </c>
@@ -16821,8 +17227,9 @@
       <c r="G97" s="21" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" s="35"/>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="24" t="s">
         <v>825</v>
       </c>
@@ -16842,8 +17249,9 @@
       <c r="G98" s="21" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" s="35"/>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="24" t="s">
         <v>825</v>
       </c>
@@ -16863,8 +17271,11 @@
       <c r="G99" s="21" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="24" t="s">
         <v>825</v>
       </c>
@@ -16884,8 +17295,9 @@
       <c r="G100" s="21" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" s="35"/>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="24" t="s">
         <v>832</v>
       </c>
@@ -16907,8 +17319,9 @@
       <c r="G101" s="21" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101" s="35"/>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="24" t="s">
         <v>832</v>
       </c>
@@ -16930,8 +17343,9 @@
       <c r="G102" s="21" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102" s="35"/>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="24" t="s">
         <v>832</v>
       </c>
@@ -16953,8 +17367,11 @@
       <c r="G103" s="21" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="24" t="s">
         <v>832</v>
       </c>
@@ -16976,8 +17393,9 @@
       <c r="G104" s="21" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104" s="35"/>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="24" t="s">
         <v>834</v>
       </c>
@@ -16999,8 +17417,9 @@
       <c r="G105" s="21" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" s="35"/>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="24" t="s">
         <v>834</v>
       </c>
@@ -17022,8 +17441,11 @@
       <c r="G106" s="21" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="24" t="s">
         <v>834</v>
       </c>
@@ -17045,8 +17467,9 @@
       <c r="G107" s="21" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107" s="35"/>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="24" t="s">
         <v>834</v>
       </c>
@@ -17068,8 +17491,9 @@
       <c r="G108" s="21" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108" s="35"/>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="9" t="s">
         <v>837</v>
       </c>
@@ -17091,8 +17515,9 @@
       <c r="G109" s="21" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109" s="35"/>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="9" t="s">
         <v>837</v>
       </c>
@@ -17114,8 +17539,11 @@
       <c r="G110" s="21" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="9" t="s">
         <v>837</v>
       </c>
@@ -17137,8 +17565,9 @@
       <c r="G111" s="21" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111" s="35"/>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="9" t="s">
         <v>837</v>
       </c>
@@ -17160,8 +17589,9 @@
       <c r="G112" s="21" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112" s="35"/>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="24" t="s">
         <v>840</v>
       </c>
@@ -17181,8 +17611,9 @@
       <c r="G113" s="21" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113" s="35"/>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="24" t="s">
         <v>840</v>
       </c>
@@ -17202,8 +17633,9 @@
       <c r="G114" s="21" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114" s="35"/>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="24" t="s">
         <v>840</v>
       </c>
@@ -17223,8 +17655,11 @@
       <c r="G115" s="21" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="9" t="s">
         <v>846</v>
       </c>
@@ -17246,8 +17681,9 @@
       <c r="G116" s="21" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116" s="35"/>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="9" t="s">
         <v>846</v>
       </c>
@@ -17269,8 +17705,11 @@
       <c r="G117" s="21" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="9" t="s">
         <v>848</v>
       </c>
@@ -17292,8 +17731,9 @@
       <c r="G118" s="21" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118" s="35"/>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="9" t="s">
         <v>848</v>
       </c>
@@ -17315,8 +17755,11 @@
       <c r="G119" s="21" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="24" t="s">
         <v>848</v>
       </c>
@@ -17336,8 +17779,9 @@
       <c r="G120" s="21" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120" s="35"/>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="24" t="s">
         <v>853</v>
       </c>
@@ -17357,8 +17801,9 @@
       <c r="G121" s="21" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121" s="35"/>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="24" t="s">
         <v>853</v>
       </c>
@@ -17378,8 +17823,11 @@
       <c r="G122" s="21" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="24" t="s">
         <v>853</v>
       </c>
@@ -17399,8 +17847,9 @@
       <c r="G123" s="21" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123" s="35"/>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="9" t="s">
         <v>854</v>
       </c>
@@ -17420,8 +17869,9 @@
       <c r="G124" s="21" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124" s="35"/>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="9" t="s">
         <v>854</v>
       </c>
@@ -17441,8 +17891,9 @@
       <c r="G125" s="21" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="45">
+      <c r="H125" s="35"/>
+    </row>
+    <row r="126" spans="1:8" ht="45">
       <c r="A126" s="9" t="s">
         <v>854</v>
       </c>
@@ -17462,8 +17913,9 @@
       <c r="G126" s="21" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126" s="35"/>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="9" t="s">
         <v>854</v>
       </c>
@@ -17483,8 +17935,9 @@
       <c r="G127" s="21" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="45">
+      <c r="H127" s="35"/>
+    </row>
+    <row r="128" spans="1:8" ht="45">
       <c r="A128" s="24" t="s">
         <v>854</v>
       </c>
@@ -17502,8 +17955,9 @@
       <c r="G128" s="21" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="45">
+      <c r="H128" s="35"/>
+    </row>
+    <row r="129" spans="1:8" ht="45">
       <c r="A129" s="24" t="s">
         <v>854</v>
       </c>
@@ -17521,8 +17975,9 @@
       <c r="G129" s="21" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="45">
+      <c r="H129" s="35"/>
+    </row>
+    <row r="130" spans="1:8" ht="45">
       <c r="A130" s="24" t="s">
         <v>854</v>
       </c>
@@ -17540,8 +17995,9 @@
       <c r="G130" s="21" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="45">
+      <c r="H130" s="35"/>
+    </row>
+    <row r="131" spans="1:8" ht="45">
       <c r="A131" s="23" t="s">
         <v>854</v>
       </c>
@@ -17559,8 +18015,9 @@
       <c r="G131" s="13" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="75">
+      <c r="H131" s="35"/>
+    </row>
+    <row r="132" spans="1:8" ht="75">
       <c r="A132" s="24" t="s">
         <v>854</v>
       </c>
@@ -17578,8 +18035,9 @@
       <c r="G132" s="21" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="75">
+      <c r="H132" s="35"/>
+    </row>
+    <row r="133" spans="1:8" ht="75">
       <c r="A133" s="24" t="s">
         <v>854</v>
       </c>
@@ -17597,8 +18055,9 @@
       <c r="G133" s="21" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133" s="35"/>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="24" t="s">
         <v>854</v>
       </c>
@@ -17618,8 +18077,9 @@
       <c r="G134" s="21" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134" s="35"/>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="24" t="s">
         <v>854</v>
       </c>
@@ -17639,8 +18099,11 @@
       <c r="G135" s="21" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="45">
+      <c r="H135" s="35" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="45">
       <c r="A136" s="24" t="s">
         <v>854</v>
       </c>
@@ -17658,8 +18121,9 @@
       <c r="G136" s="21" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="45">
+      <c r="H136" s="35"/>
+    </row>
+    <row r="137" spans="1:8" ht="45">
       <c r="A137" s="24" t="s">
         <v>854</v>
       </c>
@@ -17677,8 +18141,9 @@
       <c r="G137" s="21" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137" s="35"/>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="24" t="s">
         <v>854</v>
       </c>
@@ -17698,8 +18163,9 @@
       <c r="G138" s="21" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138" s="35"/>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="24" t="s">
         <v>877</v>
       </c>
@@ -17721,8 +18187,9 @@
       <c r="G139" s="21" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139" s="35"/>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="24" t="s">
         <v>877</v>
       </c>
@@ -17742,8 +18209,9 @@
       <c r="G140" s="21" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140" s="35"/>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="24" t="s">
         <v>888</v>
       </c>
@@ -17763,8 +18231,9 @@
       <c r="G141" s="21" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141" s="35"/>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="24" t="s">
         <v>888</v>
       </c>
@@ -17784,8 +18253,9 @@
       <c r="G142" s="21" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142" s="35"/>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="24" t="s">
         <v>893</v>
       </c>
@@ -17805,8 +18275,9 @@
       <c r="G143" s="21" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143" s="35"/>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="24" t="s">
         <v>893</v>
       </c>
@@ -17826,8 +18297,9 @@
       <c r="G144" s="21" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144" s="35"/>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="24" t="s">
         <v>896</v>
       </c>
@@ -17847,8 +18319,9 @@
       <c r="G145" s="21" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" ht="30">
+      <c r="H145" s="35"/>
+    </row>
+    <row r="146" spans="1:8" ht="30">
       <c r="A146" s="24" t="s">
         <v>896</v>
       </c>
@@ -17868,8 +18341,9 @@
       <c r="G146" s="21" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="105">
+      <c r="H146" s="35"/>
+    </row>
+    <row r="147" spans="1:8" ht="105">
       <c r="A147" s="24" t="s">
         <v>896</v>
       </c>
@@ -17887,8 +18361,11 @@
       <c r="G147" s="21" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" ht="105">
+      <c r="H147" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="105">
       <c r="A148" s="24" t="s">
         <v>896</v>
       </c>
@@ -17906,8 +18383,11 @@
       <c r="G148" s="21" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="24" t="s">
         <v>911</v>
       </c>
@@ -17927,8 +18407,9 @@
       <c r="G149" s="21" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149" s="35"/>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="24" t="s">
         <v>911</v>
       </c>
@@ -17948,8 +18429,9 @@
       <c r="G150" s="21" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="30">
+      <c r="H150" s="35"/>
+    </row>
+    <row r="151" spans="1:8" ht="30">
       <c r="A151" s="27" t="s">
         <v>911</v>
       </c>
@@ -17969,8 +18451,9 @@
       <c r="G151" s="21" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="30">
+      <c r="H151" s="35"/>
+    </row>
+    <row r="152" spans="1:8" ht="30">
       <c r="A152" s="27" t="s">
         <v>911</v>
       </c>
@@ -17990,8 +18473,9 @@
       <c r="G152" s="13" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="60">
+      <c r="H152" s="35"/>
+    </row>
+    <row r="153" spans="1:8" ht="60">
       <c r="A153" s="27" t="s">
         <v>911</v>
       </c>
@@ -18011,8 +18495,9 @@
       <c r="G153" s="21" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="60">
+      <c r="H153" s="35"/>
+    </row>
+    <row r="154" spans="1:8" ht="60">
       <c r="A154" s="27" t="s">
         <v>911</v>
       </c>
@@ -18032,8 +18517,9 @@
       <c r="G154" s="21" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154" s="35"/>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="22" t="s">
         <v>924</v>
       </c>
@@ -18053,8 +18539,11 @@
       <c r="G155" s="21" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="22" t="s">
         <v>924</v>
       </c>
@@ -18074,8 +18563,11 @@
       <c r="G156" s="13" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="22" t="s">
         <v>924</v>
       </c>
@@ -18095,8 +18587,11 @@
       <c r="G157" s="13" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="60">
+      <c r="H157" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="60">
       <c r="A158" s="22" t="s">
         <v>924</v>
       </c>
@@ -18116,8 +18611,11 @@
       <c r="G158" s="21" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="68.25" customHeight="1">
+      <c r="H158" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="68.25" customHeight="1">
       <c r="A159" s="22" t="s">
         <v>924</v>
       </c>
@@ -18137,8 +18635,11 @@
       <c r="G159" s="21" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="22" t="s">
         <v>924</v>
       </c>
@@ -18158,8 +18659,9 @@
       <c r="G160" s="21" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="45">
+      <c r="H160" s="35"/>
+    </row>
+    <row r="161" spans="1:8" ht="45">
       <c r="A161" s="22" t="s">
         <v>924</v>
       </c>
@@ -18177,8 +18679,9 @@
       <c r="G161" s="21" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161" s="35"/>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="22" t="s">
         <v>924</v>
       </c>
@@ -18198,8 +18701,9 @@
       <c r="G162" s="21" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="H162" s="35"/>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="22" t="s">
         <v>924</v>
       </c>
@@ -18219,8 +18723,9 @@
       <c r="G163" s="21" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="90">
+      <c r="H163" s="35"/>
+    </row>
+    <row r="164" spans="1:8" ht="90">
       <c r="A164" s="9" t="s">
         <v>939</v>
       </c>
@@ -18240,8 +18745,9 @@
       <c r="G164" s="21" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="90">
+      <c r="H164" s="35"/>
+    </row>
+    <row r="165" spans="1:8" ht="90">
       <c r="A165" s="22" t="s">
         <v>939</v>
       </c>
@@ -18261,8 +18767,9 @@
       <c r="G165" s="21" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="H165" s="35"/>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="22" t="s">
         <v>947</v>
       </c>
@@ -18282,8 +18789,9 @@
       <c r="G166" s="21" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="H166" s="35"/>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="22" t="s">
         <v>947</v>
       </c>
@@ -18303,8 +18811,9 @@
       <c r="G167" s="21" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="75">
+      <c r="H167" s="35"/>
+    </row>
+    <row r="168" spans="1:8" ht="75">
       <c r="A168" s="22" t="s">
         <v>947</v>
       </c>
@@ -18322,8 +18831,11 @@
       <c r="G168" s="21" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="75">
+      <c r="H168" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="75">
       <c r="A169" s="18" t="s">
         <v>947</v>
       </c>
@@ -18341,8 +18853,11 @@
       <c r="G169" s="21" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="H169" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="22" t="s">
         <v>947</v>
       </c>
@@ -18362,8 +18877,11 @@
       <c r="G170" s="21" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="H170" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="22" t="s">
         <v>958</v>
       </c>
@@ -18383,8 +18901,9 @@
       <c r="G171" s="21" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="45">
+      <c r="H171" s="35"/>
+    </row>
+    <row r="172" spans="1:8" ht="45">
       <c r="A172" s="22" t="s">
         <v>958</v>
       </c>
@@ -18404,8 +18923,11 @@
       <c r="G172" s="21" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="H172" s="35" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="9" t="s">
         <v>958</v>
       </c>
@@ -18425,8 +18947,11 @@
       <c r="G173" s="21" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="45">
+      <c r="H173" s="35" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="45">
       <c r="A174" s="22" t="s">
         <v>958</v>
       </c>
@@ -18444,8 +18969,11 @@
       <c r="G174" s="21" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="30">
+      <c r="H174" s="35" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="30">
       <c r="A175" s="22" t="s">
         <v>958</v>
       </c>
@@ -18465,8 +18993,9 @@
       <c r="G175" s="21" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="30">
+      <c r="H175" s="35"/>
+    </row>
+    <row r="176" spans="1:8" ht="30">
       <c r="A176" s="22" t="s">
         <v>958</v>
       </c>
@@ -18486,8 +19015,9 @@
       <c r="G176" s="21" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176" s="35"/>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="22" t="s">
         <v>958</v>
       </c>
@@ -18507,8 +19037,9 @@
       <c r="G177" s="21" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="30">
+      <c r="H177" s="35"/>
+    </row>
+    <row r="178" spans="1:8" ht="30">
       <c r="A178" s="22" t="s">
         <v>974</v>
       </c>
@@ -18528,8 +19059,11 @@
       <c r="G178" s="21" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178" s="35" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="24" t="s">
         <v>946</v>
       </c>
@@ -18549,8 +19083,9 @@
       <c r="G179" s="21" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="60">
+      <c r="H179" s="35"/>
+    </row>
+    <row r="180" spans="1:8" ht="60">
       <c r="A180" s="24" t="s">
         <v>946</v>
       </c>
@@ -18570,8 +19105,9 @@
       <c r="G180" s="21" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="60">
+      <c r="H180" s="35"/>
+    </row>
+    <row r="181" spans="1:8" ht="60">
       <c r="A181" s="23" t="s">
         <v>946</v>
       </c>
@@ -18591,8 +19127,9 @@
       <c r="G181" s="13" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="60">
+      <c r="H181" s="35"/>
+    </row>
+    <row r="182" spans="1:8" ht="60">
       <c r="A182" s="23" t="s">
         <v>946</v>
       </c>
@@ -18612,8 +19149,9 @@
       <c r="G182" s="21" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182" s="35"/>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="23" t="s">
         <v>946</v>
       </c>
@@ -18633,8 +19171,9 @@
       <c r="G183" s="21" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="H183" s="35"/>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="23" t="s">
         <v>946</v>
       </c>
@@ -18654,8 +19193,9 @@
       <c r="G184" s="21" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="135">
+      <c r="H184" s="35"/>
+    </row>
+    <row r="185" spans="1:8" ht="135">
       <c r="A185" s="23" t="s">
         <v>946</v>
       </c>
@@ -18675,8 +19215,9 @@
       <c r="G185" s="21" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="135">
+      <c r="H185" s="35"/>
+    </row>
+    <row r="186" spans="1:8" ht="135">
       <c r="A186" s="23" t="s">
         <v>946</v>
       </c>
@@ -18696,8 +19237,9 @@
       <c r="G186" s="21" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" ht="135">
+      <c r="H186" s="35"/>
+    </row>
+    <row r="187" spans="1:8" ht="135">
       <c r="A187" s="23" t="s">
         <v>946</v>
       </c>
@@ -18717,8 +19259,9 @@
       <c r="G187" s="21" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="135">
+      <c r="H187" s="35"/>
+    </row>
+    <row r="188" spans="1:8" ht="135">
       <c r="A188" s="23" t="s">
         <v>946</v>
       </c>
@@ -18738,8 +19281,9 @@
       <c r="G188" s="21" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="135">
+      <c r="H188" s="35"/>
+    </row>
+    <row r="189" spans="1:8" ht="135">
       <c r="A189" s="23" t="s">
         <v>946</v>
       </c>
@@ -18759,8 +19303,9 @@
       <c r="G189" s="21" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="H189" s="35"/>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="24" t="s">
         <v>946</v>
       </c>
@@ -18780,8 +19325,9 @@
       <c r="G190" s="21" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="H190" s="35"/>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="24" t="s">
         <v>946</v>
       </c>
@@ -18801,8 +19347,9 @@
       <c r="G191" s="21" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="H191" s="35"/>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="24" t="s">
         <v>946</v>
       </c>
@@ -18822,8 +19369,9 @@
       <c r="G192" s="21" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
+      <c r="H192" s="35"/>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="24" t="s">
         <v>946</v>
       </c>
@@ -18843,8 +19391,9 @@
       <c r="G193" s="21" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="H193" s="35"/>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="24" t="s">
         <v>946</v>
       </c>
@@ -18864,8 +19413,9 @@
       <c r="G194" s="21" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="H194" s="35"/>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="24" t="s">
         <v>946</v>
       </c>
@@ -18885,8 +19435,9 @@
       <c r="G195" s="21" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" ht="30">
+      <c r="H195" s="35"/>
+    </row>
+    <row r="196" spans="1:8" ht="30">
       <c r="A196" s="24" t="s">
         <v>946</v>
       </c>
@@ -18906,8 +19457,9 @@
       <c r="G196" s="21" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="30">
+      <c r="H196" s="35"/>
+    </row>
+    <row r="197" spans="1:8" ht="30">
       <c r="A197" s="24" t="s">
         <v>946</v>
       </c>
@@ -18927,6 +19479,7 @@
       <c r="G197" s="13" t="s">
         <v>1021</v>
       </c>
+      <c r="H197" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/View_Report_MIS.xlsx
+++ b/Documentação/Planilhas/View_Report_MIS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="17235" windowHeight="2895" tabRatio="311" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="17235" windowHeight="2895" tabRatio="270" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4473" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="1068">
   <si>
     <t>TABLE_CATALOG</t>
   </si>
@@ -3443,7 +3443,34 @@
     <t>Consome Direto do SIGE</t>
   </si>
   <si>
-    <t>Validar Mudança Garantia Extendida</t>
+    <t>Devido a regra para carga de SKU, o cenário atual não muda apenas que o mesmo SKU para GE são os mesmo para todos os SKU's</t>
+  </si>
+  <si>
+    <t>Conforme visualização de uso, deverá ser desativado na migração do LN</t>
+  </si>
+  <si>
+    <t>Deverá ser modificada, atentando-se para teste na qt_estoque e valor CMV, pois dada a mudança na view e inclusão de novo campo na Fato Estoque Sige, não foi possivel fazer teste com massa de dados em Desenv</t>
+  </si>
+  <si>
+    <t>Substituir Relatorio</t>
+  </si>
+  <si>
+    <t>Substituir procedure mapeada scrip mudança MIS_RELATORIO</t>
+  </si>
+  <si>
+    <t>Alerta!</t>
+  </si>
+  <si>
+    <t>Verificar no front mudança de regra de procedure que executa o relatório</t>
+  </si>
+  <si>
+    <t>Substituir DataSet Filial, modificando pelo numero da companhia vigente no LN, em DEV é 201</t>
+  </si>
+  <si>
+    <t>Conforme orientação do Patrick, manter relatório em Hold até definição de fonte para extração (LN ou BI)</t>
+  </si>
+  <si>
+    <t>Substituir Dataset DSetRelatorio, devido a mudança da query, no qual sofreu alteração no STATUS do Item</t>
   </si>
 </sst>
 </file>
@@ -3623,7 +3650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3744,7 +3771,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15533,8 +15569,8 @@
   <dimension ref="A1:J197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15547,6 +15583,8 @@
     <col min="6" max="6" width="44" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" style="12" customWidth="1"/>
     <col min="8" max="8" width="71.85546875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
@@ -17211,7 +17249,7 @@
       </c>
       <c r="I64" s="35"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:10">
       <c r="A65" s="24" t="s">
         <v>720</v>
       </c>
@@ -17238,7 +17276,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="60">
+    <row r="66" spans="1:10" ht="60">
       <c r="A66" s="24" t="s">
         <v>720</v>
       </c>
@@ -17265,7 +17303,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67" s="22" t="s">
         <v>720</v>
       </c>
@@ -17292,7 +17330,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68" s="22" t="s">
         <v>730</v>
       </c>
@@ -17317,7 +17355,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69" s="24" t="s">
         <v>735</v>
       </c>
@@ -17346,7 +17384,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70" s="9" t="s">
         <v>735</v>
       </c>
@@ -17375,7 +17413,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71" s="9" t="s">
         <v>735</v>
       </c>
@@ -17404,7 +17442,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72" s="9" t="s">
         <v>735</v>
       </c>
@@ -17433,7 +17471,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="A73" s="9" t="s">
         <v>735</v>
       </c>
@@ -17462,7 +17500,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:10">
       <c r="A74" s="24" t="s">
         <v>762</v>
       </c>
@@ -17489,7 +17527,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10">
       <c r="A75" s="24" t="s">
         <v>769</v>
       </c>
@@ -17516,7 +17554,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="135">
+    <row r="76" spans="1:10" ht="135">
       <c r="A76" s="24" t="s">
         <v>769</v>
       </c>
@@ -17543,7 +17581,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:10">
       <c r="A77" s="24" t="s">
         <v>769</v>
       </c>
@@ -17570,7 +17608,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:10">
       <c r="A78" s="24" t="s">
         <v>769</v>
       </c>
@@ -17597,8 +17635,8 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="24" t="s">
+    <row r="79" spans="1:10">
+      <c r="A79" s="42" t="s">
         <v>776</v>
       </c>
       <c r="B79" s="14" t="s">
@@ -17623,9 +17661,12 @@
       <c r="I79" s="35" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="24" t="s">
+      <c r="J79" s="41" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="42" t="s">
         <v>776</v>
       </c>
       <c r="B80" s="14" t="s">
@@ -17650,9 +17691,10 @@
       <c r="I80" s="35" t="s">
         <v>1057</v>
       </c>
+      <c r="J80" s="41"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="42" t="s">
         <v>776</v>
       </c>
       <c r="B81" s="14" t="s">
@@ -17677,6 +17719,7 @@
       <c r="I81" s="35" t="s">
         <v>1057</v>
       </c>
+      <c r="J81" s="41"/>
     </row>
     <row r="82" spans="1:10" ht="270">
       <c r="A82" s="29" t="s">
@@ -17918,7 +17961,9 @@
       <c r="H91" s="31" t="s">
         <v>820</v>
       </c>
-      <c r="I91" s="35"/>
+      <c r="I91" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="92" spans="1:10" ht="150">
       <c r="A92" s="30" t="s">
@@ -17939,7 +17984,9 @@
       <c r="H92" s="31" t="s">
         <v>819</v>
       </c>
-      <c r="I92" s="35"/>
+      <c r="I92" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="24" t="s">
@@ -17963,7 +18010,10 @@
         <v>828</v>
       </c>
       <c r="I93" s="35" t="s">
-        <v>1022</v>
+        <v>1061</v>
+      </c>
+      <c r="J93" s="41" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -17987,7 +18037,10 @@
       <c r="H94" s="21" t="s">
         <v>823</v>
       </c>
-      <c r="I94" s="35"/>
+      <c r="I94" s="35" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J94" s="41"/>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="24" t="s">
@@ -18011,8 +18064,9 @@
         <v>824</v>
       </c>
       <c r="I95" s="35" t="s">
-        <v>1022</v>
-      </c>
+        <v>1061</v>
+      </c>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="24" t="s">
@@ -18035,9 +18089,12 @@
       <c r="H96" s="21" t="s">
         <v>830</v>
       </c>
-      <c r="I96" s="35"/>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="I96" s="35" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J96" s="41"/>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="24" t="s">
         <v>825</v>
       </c>
@@ -18058,9 +18115,14 @@
       <c r="H97" s="21" t="s">
         <v>828</v>
       </c>
-      <c r="I97" s="35"/>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="I97" s="35" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J97" s="41" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="24" t="s">
         <v>825</v>
       </c>
@@ -18081,9 +18143,12 @@
       <c r="H98" s="21" t="s">
         <v>823</v>
       </c>
-      <c r="I98" s="35"/>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="I98" s="35" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J98" s="41"/>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="24" t="s">
         <v>825</v>
       </c>
@@ -18105,10 +18170,11 @@
         <v>824</v>
       </c>
       <c r="I99" s="35" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>1061</v>
+      </c>
+      <c r="J99" s="41"/>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="24" t="s">
         <v>825</v>
       </c>
@@ -18129,9 +18195,12 @@
       <c r="H100" s="21" t="s">
         <v>830</v>
       </c>
-      <c r="I100" s="35"/>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="I100" s="35" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J100" s="41"/>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="24" t="s">
         <v>832</v>
       </c>
@@ -18154,9 +18223,14 @@
       <c r="H101" s="21" t="s">
         <v>828</v>
       </c>
-      <c r="I101" s="35"/>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="I101" s="35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J101" s="41" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="24" t="s">
         <v>832</v>
       </c>
@@ -18179,9 +18253,12 @@
       <c r="H102" s="21" t="s">
         <v>823</v>
       </c>
-      <c r="I102" s="35"/>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="I102" s="35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J102" s="41"/>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="24" t="s">
         <v>832</v>
       </c>
@@ -18205,10 +18282,11 @@
         <v>824</v>
       </c>
       <c r="I103" s="35" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>1062</v>
+      </c>
+      <c r="J103" s="41"/>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="24" t="s">
         <v>832</v>
       </c>
@@ -18231,9 +18309,12 @@
       <c r="H104" s="21" t="s">
         <v>830</v>
       </c>
-      <c r="I104" s="35"/>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="I104" s="35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J104" s="41"/>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="24" t="s">
         <v>834</v>
       </c>
@@ -18256,9 +18337,14 @@
       <c r="H105" s="21" t="s">
         <v>828</v>
       </c>
-      <c r="I105" s="35"/>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="I105" s="35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J105" s="41" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="24" t="s">
         <v>834</v>
       </c>
@@ -18282,10 +18368,11 @@
         <v>824</v>
       </c>
       <c r="I106" s="35" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>1062</v>
+      </c>
+      <c r="J106" s="41"/>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="24" t="s">
         <v>834</v>
       </c>
@@ -18308,9 +18395,12 @@
       <c r="H107" s="21" t="s">
         <v>830</v>
       </c>
-      <c r="I107" s="35"/>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="I107" s="35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J107" s="41"/>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="24" t="s">
         <v>834</v>
       </c>
@@ -18333,9 +18423,12 @@
       <c r="H108" s="21" t="s">
         <v>823</v>
       </c>
-      <c r="I108" s="35"/>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="I108" s="35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J108" s="41"/>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="9" t="s">
         <v>837</v>
       </c>
@@ -18358,9 +18451,14 @@
       <c r="H109" s="21" t="s">
         <v>828</v>
       </c>
-      <c r="I109" s="35"/>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="I109" s="35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J109" s="41" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="9" t="s">
         <v>837</v>
       </c>
@@ -18384,10 +18482,11 @@
         <v>824</v>
       </c>
       <c r="I110" s="35" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>1062</v>
+      </c>
+      <c r="J110" s="41"/>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="9" t="s">
         <v>837</v>
       </c>
@@ -18410,9 +18509,12 @@
       <c r="H111" s="21" t="s">
         <v>830</v>
       </c>
-      <c r="I111" s="35"/>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="I111" s="35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J111" s="41"/>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="9" t="s">
         <v>837</v>
       </c>
@@ -18435,9 +18537,12 @@
       <c r="H112" s="21" t="s">
         <v>823</v>
       </c>
-      <c r="I112" s="35"/>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="I112" s="35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J112" s="41"/>
+    </row>
+    <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" s="24" t="s">
         <v>840</v>
       </c>
@@ -18458,9 +18563,14 @@
       <c r="H113" s="21" t="s">
         <v>843</v>
       </c>
-      <c r="I113" s="35"/>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="I113" s="35" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J113" s="41" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="24" t="s">
         <v>840</v>
       </c>
@@ -18481,9 +18591,12 @@
       <c r="H114" s="21" t="s">
         <v>830</v>
       </c>
-      <c r="I114" s="35"/>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="I114" s="35" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J114" s="41"/>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="24" t="s">
         <v>840</v>
       </c>
@@ -18505,10 +18618,11 @@
         <v>824</v>
       </c>
       <c r="I115" s="35" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>1061</v>
+      </c>
+      <c r="J115" s="41"/>
+    </row>
+    <row r="116" spans="1:10" ht="15" customHeight="1">
       <c r="A116" s="9" t="s">
         <v>846</v>
       </c>
@@ -18531,9 +18645,14 @@
       <c r="H116" s="21" t="s">
         <v>830</v>
       </c>
-      <c r="I116" s="35"/>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="I116" s="35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J116" s="41" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="9" t="s">
         <v>846</v>
       </c>
@@ -18557,10 +18676,11 @@
         <v>824</v>
       </c>
       <c r="I117" s="35" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>1062</v>
+      </c>
+      <c r="J117" s="41"/>
+    </row>
+    <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" s="9" t="s">
         <v>848</v>
       </c>
@@ -18583,9 +18703,14 @@
       <c r="H118" s="21" t="s">
         <v>830</v>
       </c>
-      <c r="I118" s="35"/>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="I118" s="35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J118" s="41" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="9" t="s">
         <v>848</v>
       </c>
@@ -18609,10 +18734,11 @@
         <v>824</v>
       </c>
       <c r="I119" s="35" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>1062</v>
+      </c>
+      <c r="J119" s="41"/>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="24" t="s">
         <v>848</v>
       </c>
@@ -18633,9 +18759,12 @@
       <c r="H120" s="21" t="s">
         <v>851</v>
       </c>
-      <c r="I120" s="35"/>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="I120" s="35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J120" s="41"/>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="24" t="s">
         <v>853</v>
       </c>
@@ -18656,9 +18785,14 @@
       <c r="H121" s="21" t="s">
         <v>843</v>
       </c>
-      <c r="I121" s="35"/>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="I121" s="35" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J121" s="41" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="24" t="s">
         <v>853</v>
       </c>
@@ -18680,10 +18814,11 @@
         <v>824</v>
       </c>
       <c r="I122" s="35" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>1061</v>
+      </c>
+      <c r="J122" s="41"/>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="24" t="s">
         <v>853</v>
       </c>
@@ -18704,9 +18839,12 @@
       <c r="H123" s="21" t="s">
         <v>830</v>
       </c>
-      <c r="I123" s="35"/>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="I123" s="35" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J123" s="41"/>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="9" t="s">
         <v>854</v>
       </c>
@@ -18727,9 +18865,11 @@
       <c r="H124" s="21" t="s">
         <v>856</v>
       </c>
-      <c r="I124" s="35"/>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="I124" s="35" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="9" t="s">
         <v>854</v>
       </c>
@@ -18750,9 +18890,11 @@
       <c r="H125" s="21" t="s">
         <v>857</v>
       </c>
-      <c r="I125" s="35"/>
-    </row>
-    <row r="126" spans="1:9" ht="45">
+      <c r="I125" s="35" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="45">
       <c r="A126" s="9" t="s">
         <v>854</v>
       </c>
@@ -18773,9 +18915,11 @@
       <c r="H126" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="I126" s="35"/>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="I126" s="35" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="9" t="s">
         <v>854</v>
       </c>
@@ -18796,9 +18940,11 @@
       <c r="H127" s="21" t="s">
         <v>858</v>
       </c>
-      <c r="I127" s="35"/>
-    </row>
-    <row r="128" spans="1:9" ht="45">
+      <c r="I127" s="35" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="45">
       <c r="A128" s="24" t="s">
         <v>854</v>
       </c>
@@ -18817,7 +18963,9 @@
       <c r="H128" s="21" t="s">
         <v>862</v>
       </c>
-      <c r="I128" s="35"/>
+      <c r="I128" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="129" spans="1:9" ht="45">
       <c r="A129" s="24" t="s">
@@ -18838,7 +18986,9 @@
       <c r="H129" s="21" t="s">
         <v>862</v>
       </c>
-      <c r="I129" s="35"/>
+      <c r="I129" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="130" spans="1:9" ht="45">
       <c r="A130" s="24" t="s">
@@ -18859,7 +19009,9 @@
       <c r="H130" s="21" t="s">
         <v>864</v>
       </c>
-      <c r="I130" s="35"/>
+      <c r="I130" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="131" spans="1:9" ht="45">
       <c r="A131" s="23" t="s">
@@ -18880,7 +19032,9 @@
       <c r="H131" s="13" t="s">
         <v>864</v>
       </c>
-      <c r="I131" s="35"/>
+      <c r="I131" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="132" spans="1:9" ht="75">
       <c r="A132" s="24" t="s">
@@ -18901,7 +19055,9 @@
       <c r="H132" s="21" t="s">
         <v>866</v>
       </c>
-      <c r="I132" s="35"/>
+      <c r="I132" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="133" spans="1:9" ht="75">
       <c r="A133" s="24" t="s">
@@ -18922,7 +19078,9 @@
       <c r="H133" s="21" t="s">
         <v>866</v>
       </c>
-      <c r="I133" s="35"/>
+      <c r="I133" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="24" t="s">
@@ -18945,7 +19103,9 @@
       <c r="H134" s="21" t="s">
         <v>867</v>
       </c>
-      <c r="I134" s="35"/>
+      <c r="I134" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="24" t="s">
@@ -18969,7 +19129,7 @@
         <v>870</v>
       </c>
       <c r="I135" s="35" t="s">
-        <v>1023</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="45">
@@ -18991,7 +19151,9 @@
       <c r="H136" s="21" t="s">
         <v>874</v>
       </c>
-      <c r="I136" s="35"/>
+      <c r="I136" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="137" spans="1:9" ht="45">
       <c r="A137" s="24" t="s">
@@ -19012,7 +19174,9 @@
       <c r="H137" s="21" t="s">
         <v>874</v>
       </c>
-      <c r="I137" s="35"/>
+      <c r="I137" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="24" t="s">
@@ -19035,7 +19199,9 @@
       <c r="H138" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="I138" s="35"/>
+      <c r="I138" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="24" t="s">
@@ -19060,7 +19226,9 @@
       <c r="H139" s="21" t="s">
         <v>882</v>
       </c>
-      <c r="I139" s="35"/>
+      <c r="I139" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="24" t="s">
@@ -19083,7 +19251,9 @@
       <c r="H140" s="21" t="s">
         <v>884</v>
       </c>
-      <c r="I140" s="35"/>
+      <c r="I140" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="24" t="s">
@@ -19106,7 +19276,9 @@
       <c r="H141" s="21" t="s">
         <v>891</v>
       </c>
-      <c r="I141" s="35"/>
+      <c r="I141" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="24" t="s">
@@ -19129,7 +19301,9 @@
       <c r="H142" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="I142" s="35"/>
+      <c r="I142" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="24" t="s">
@@ -19152,7 +19326,9 @@
       <c r="H143" s="21" t="s">
         <v>891</v>
       </c>
-      <c r="I143" s="35"/>
+      <c r="I143" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="24" t="s">
@@ -19175,7 +19351,9 @@
       <c r="H144" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="I144" s="35"/>
+      <c r="I144" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="24" t="s">
@@ -19198,7 +19376,9 @@
       <c r="H145" s="21" t="s">
         <v>899</v>
       </c>
-      <c r="I145" s="35"/>
+      <c r="I145" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="146" spans="1:9" ht="30">
       <c r="A146" s="24" t="s">
@@ -19221,7 +19401,9 @@
       <c r="H146" s="21" t="s">
         <v>903</v>
       </c>
-      <c r="I146" s="35"/>
+      <c r="I146" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="147" spans="1:9" ht="105">
       <c r="A147" s="24" t="s">
@@ -19243,7 +19425,7 @@
         <v>907</v>
       </c>
       <c r="I147" s="35" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="105">
@@ -19266,7 +19448,7 @@
         <v>907</v>
       </c>
       <c r="I148" s="35" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -19290,7 +19472,9 @@
       <c r="H149" s="21" t="s">
         <v>912</v>
       </c>
-      <c r="I149" s="35"/>
+      <c r="I149" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="24" t="s">
@@ -19313,7 +19497,9 @@
       <c r="H150" s="21" t="s">
         <v>914</v>
       </c>
-      <c r="I150" s="35"/>
+      <c r="I150" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="151" spans="1:9" ht="30">
       <c r="A151" s="27" t="s">
@@ -19336,7 +19522,9 @@
       <c r="H151" s="21" t="s">
         <v>917</v>
       </c>
-      <c r="I151" s="35"/>
+      <c r="I151" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="152" spans="1:9" ht="30">
       <c r="A152" s="27" t="s">
@@ -19359,7 +19547,9 @@
       <c r="H152" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="I152" s="35"/>
+      <c r="I152" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="153" spans="1:9" ht="60">
       <c r="A153" s="27" t="s">
@@ -19382,7 +19572,9 @@
       <c r="H153" s="21" t="s">
         <v>921</v>
       </c>
-      <c r="I153" s="35"/>
+      <c r="I153" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="154" spans="1:9" ht="60">
       <c r="A154" s="27" t="s">
@@ -19405,7 +19597,9 @@
       <c r="H154" s="21" t="s">
         <v>923</v>
       </c>
-      <c r="I154" s="35"/>
+      <c r="I154" s="35" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="22" t="s">
@@ -19429,7 +19623,7 @@
         <v>926</v>
       </c>
       <c r="I155" s="35" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -19454,7 +19648,7 @@
         <v>927</v>
       </c>
       <c r="I156" s="35" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -19479,7 +19673,7 @@
         <v>928</v>
       </c>
       <c r="I157" s="35" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="60">
@@ -19504,7 +19698,7 @@
         <v>932</v>
       </c>
       <c r="I158" s="35" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="68.25" customHeight="1">
@@ -19529,7 +19723,7 @@
         <v>933</v>
       </c>
       <c r="I159" s="35" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -19553,9 +19747,11 @@
       <c r="H160" s="21" t="s">
         <v>912</v>
       </c>
-      <c r="I160" s="35"/>
-    </row>
-    <row r="161" spans="1:9" ht="45">
+      <c r="I160" s="35" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="45">
       <c r="A161" s="22" t="s">
         <v>924</v>
       </c>
@@ -19574,9 +19770,11 @@
       <c r="H161" s="21" t="s">
         <v>935</v>
       </c>
-      <c r="I161" s="35"/>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="I161" s="35" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="22" t="s">
         <v>924</v>
       </c>
@@ -19597,9 +19795,11 @@
       <c r="H162" s="21" t="s">
         <v>936</v>
       </c>
-      <c r="I162" s="35"/>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="I162" s="35" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="22" t="s">
         <v>924</v>
       </c>
@@ -19620,9 +19820,11 @@
       <c r="H163" s="21" t="s">
         <v>938</v>
       </c>
-      <c r="I163" s="35"/>
-    </row>
-    <row r="164" spans="1:9" ht="90">
+      <c r="I163" s="35" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="90">
       <c r="A164" s="9" t="s">
         <v>939</v>
       </c>
@@ -19643,9 +19845,11 @@
       <c r="H164" s="21" t="s">
         <v>941</v>
       </c>
-      <c r="I164" s="35"/>
-    </row>
-    <row r="165" spans="1:9" ht="90">
+      <c r="I164" s="35" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="90">
       <c r="A165" s="22" t="s">
         <v>939</v>
       </c>
@@ -19666,9 +19870,11 @@
       <c r="H165" s="21" t="s">
         <v>943</v>
       </c>
-      <c r="I165" s="35"/>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="I165" s="35" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="24" t="s">
         <v>946</v>
       </c>
@@ -19689,9 +19895,11 @@
       <c r="H166" s="21" t="s">
         <v>995</v>
       </c>
-      <c r="I166" s="35"/>
-    </row>
-    <row r="167" spans="1:9" ht="60">
+      <c r="I166" s="35" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="60">
       <c r="A167" s="24" t="s">
         <v>946</v>
       </c>
@@ -19712,9 +19920,11 @@
       <c r="H167" s="21" t="s">
         <v>997</v>
       </c>
-      <c r="I167" s="35"/>
-    </row>
-    <row r="168" spans="1:9" ht="60">
+      <c r="I167" s="35" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="60">
       <c r="A168" s="24" t="s">
         <v>946</v>
       </c>
@@ -19735,9 +19945,11 @@
       <c r="H168" s="13" t="s">
         <v>999</v>
       </c>
-      <c r="I168" s="35"/>
-    </row>
-    <row r="169" spans="1:9" ht="60">
+      <c r="I168" s="35" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="60">
       <c r="A169" s="23" t="s">
         <v>946</v>
       </c>
@@ -19758,9 +19970,11 @@
       <c r="H169" s="21" t="s">
         <v>1000</v>
       </c>
-      <c r="I169" s="35"/>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="I169" s="35" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="24" t="s">
         <v>946</v>
       </c>
@@ -19781,9 +19995,11 @@
       <c r="H170" s="21" t="s">
         <v>1004</v>
       </c>
-      <c r="I170" s="35"/>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="I170" s="35" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="24" t="s">
         <v>946</v>
       </c>
@@ -19804,9 +20020,14 @@
       <c r="H171" s="21" t="s">
         <v>1005</v>
       </c>
-      <c r="I171" s="35"/>
-    </row>
-    <row r="172" spans="1:9" ht="135">
+      <c r="I171" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J171" s="43" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="135">
       <c r="A172" s="24" t="s">
         <v>946</v>
       </c>
@@ -19827,9 +20048,12 @@
       <c r="H172" s="21" t="s">
         <v>1008</v>
       </c>
-      <c r="I172" s="35"/>
-    </row>
-    <row r="173" spans="1:9" ht="135">
+      <c r="I172" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J172" s="43"/>
+    </row>
+    <row r="173" spans="1:10" ht="135">
       <c r="A173" s="24" t="s">
         <v>946</v>
       </c>
@@ -19850,9 +20074,12 @@
       <c r="H173" s="21" t="s">
         <v>1009</v>
       </c>
-      <c r="I173" s="35"/>
-    </row>
-    <row r="174" spans="1:9" ht="135">
+      <c r="I173" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J173" s="43"/>
+    </row>
+    <row r="174" spans="1:10" ht="135">
       <c r="A174" s="24" t="s">
         <v>946</v>
       </c>
@@ -19873,9 +20100,12 @@
       <c r="H174" s="21" t="s">
         <v>1012</v>
       </c>
-      <c r="I174" s="35"/>
-    </row>
-    <row r="175" spans="1:9" ht="135">
+      <c r="I174" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J174" s="43"/>
+    </row>
+    <row r="175" spans="1:10" ht="135">
       <c r="A175" s="24" t="s">
         <v>946</v>
       </c>
@@ -19896,9 +20126,12 @@
       <c r="H175" s="21" t="s">
         <v>1015</v>
       </c>
-      <c r="I175" s="35"/>
-    </row>
-    <row r="176" spans="1:9" ht="135">
+      <c r="I175" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J175" s="43"/>
+    </row>
+    <row r="176" spans="1:10" ht="135">
       <c r="A176" s="24" t="s">
         <v>946</v>
       </c>
@@ -19919,9 +20152,12 @@
       <c r="H176" s="21" t="s">
         <v>1016</v>
       </c>
-      <c r="I176" s="35"/>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="I176" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J176" s="43"/>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="24" t="s">
         <v>946</v>
       </c>
@@ -19942,9 +20178,12 @@
       <c r="H177" s="21" t="s">
         <v>1018</v>
       </c>
-      <c r="I177" s="35"/>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="I177" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J177" s="43"/>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="24" t="s">
         <v>946</v>
       </c>
@@ -19965,9 +20204,12 @@
       <c r="H178" s="21" t="s">
         <v>1020</v>
       </c>
-      <c r="I178" s="35"/>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="I178" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J178" s="43"/>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="24" t="s">
         <v>946</v>
       </c>
@@ -19988,9 +20230,12 @@
       <c r="H179" s="21" t="s">
         <v>1020</v>
       </c>
-      <c r="I179" s="35"/>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="I179" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J179" s="43"/>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="24" t="s">
         <v>946</v>
       </c>
@@ -20011,9 +20256,12 @@
       <c r="H180" s="21" t="s">
         <v>1018</v>
       </c>
-      <c r="I180" s="35"/>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="I180" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J180" s="43"/>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="23" t="s">
         <v>946</v>
       </c>
@@ -20034,9 +20282,12 @@
       <c r="H181" s="21" t="s">
         <v>1020</v>
       </c>
-      <c r="I181" s="35"/>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="I181" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J181" s="43"/>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="23" t="s">
         <v>946</v>
       </c>
@@ -20057,9 +20308,12 @@
       <c r="H182" s="21" t="s">
         <v>1020</v>
       </c>
-      <c r="I182" s="35"/>
-    </row>
-    <row r="183" spans="1:9" ht="30">
+      <c r="I182" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J182" s="43"/>
+    </row>
+    <row r="183" spans="1:10" ht="30">
       <c r="A183" s="23" t="s">
         <v>946</v>
       </c>
@@ -20080,9 +20334,12 @@
       <c r="H183" s="21" t="s">
         <v>1021</v>
       </c>
-      <c r="I183" s="35"/>
-    </row>
-    <row r="184" spans="1:9" ht="30">
+      <c r="I183" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J183" s="43"/>
+    </row>
+    <row r="184" spans="1:10" ht="30">
       <c r="A184" s="23" t="s">
         <v>946</v>
       </c>
@@ -20103,9 +20360,12 @@
       <c r="H184" s="13" t="s">
         <v>1021</v>
       </c>
-      <c r="I184" s="35"/>
-    </row>
-    <row r="185" spans="1:9">
+      <c r="I184" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J184" s="43"/>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="18" t="s">
         <v>947</v>
       </c>
@@ -20126,9 +20386,11 @@
       <c r="H185" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="I185" s="35"/>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="I185" s="35" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="75">
       <c r="A186" s="18" t="s">
         <v>947</v>
       </c>
@@ -20149,9 +20411,11 @@
       <c r="H186" s="21" t="s">
         <v>683</v>
       </c>
-      <c r="I186" s="35"/>
-    </row>
-    <row r="187" spans="1:9" ht="75">
+      <c r="I186" s="44" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="75">
       <c r="A187" s="18" t="s">
         <v>947</v>
       </c>
@@ -20171,10 +20435,10 @@
         <v>951</v>
       </c>
       <c r="I187" s="35" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="75">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="75">
       <c r="A188" s="18" t="s">
         <v>947</v>
       </c>
@@ -20194,10 +20458,10 @@
         <v>951</v>
       </c>
       <c r="I188" s="35" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="18" t="s">
         <v>947</v>
       </c>
@@ -20219,10 +20483,10 @@
         <v>955</v>
       </c>
       <c r="I189" s="35" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="22" t="s">
         <v>958</v>
       </c>
@@ -20243,9 +20507,11 @@
       <c r="H190" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="I190" s="35"/>
-    </row>
-    <row r="191" spans="1:9" ht="45">
+      <c r="I190" s="35" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="45">
       <c r="A191" s="22" t="s">
         <v>958</v>
       </c>
@@ -20267,10 +20533,10 @@
         <v>960</v>
       </c>
       <c r="I191" s="35" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="9" t="s">
         <v>958</v>
       </c>
@@ -20292,7 +20558,7 @@
         <v>963</v>
       </c>
       <c r="I192" s="35" t="s">
-        <v>1023</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="45">
@@ -20315,7 +20581,7 @@
         <v>966</v>
       </c>
       <c r="I193" s="35" t="s">
-        <v>1023</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="30">
@@ -20339,7 +20605,9 @@
       <c r="H194" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="I194" s="35"/>
+      <c r="I194" s="35" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="195" spans="1:9" ht="30">
       <c r="A195" s="22" t="s">
@@ -20362,7 +20630,9 @@
       <c r="H195" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="I195" s="35"/>
+      <c r="I195" s="35" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="22" t="s">
@@ -20385,9 +20655,11 @@
       <c r="H196" s="21" t="s">
         <v>973</v>
       </c>
-      <c r="I196" s="35"/>
-    </row>
-    <row r="197" spans="1:9" ht="30">
+      <c r="I196" s="35" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="90">
       <c r="A197" s="22" t="s">
         <v>974</v>
       </c>
@@ -20408,13 +20680,24 @@
       <c r="H197" s="21" t="s">
         <v>977</v>
       </c>
-      <c r="I197" s="35" t="s">
-        <v>1022</v>
+      <c r="I197" s="44" t="s">
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="12">
+    <mergeCell ref="J121:J123"/>
+    <mergeCell ref="J171:J184"/>
+    <mergeCell ref="J105:J108"/>
+    <mergeCell ref="J109:J112"/>
+    <mergeCell ref="J113:J115"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="J118:J120"/>
     <mergeCell ref="J87:J90"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="J97:J100"/>
+    <mergeCell ref="J101:J104"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentação/Planilhas/View_Report_MIS.xlsx
+++ b/Documentação/Planilhas/View_Report_MIS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="17235" windowHeight="2895" tabRatio="270" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="17235" windowHeight="2895" tabRatio="399" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4570" uniqueCount="1070">
   <si>
     <t>TABLE_CATALOG</t>
   </si>
@@ -3471,6 +3471,12 @@
   </si>
   <si>
     <t>Substituir Dataset DSetRelatorio, devido a mudança da query, no qual sofreu alteração no STATUS do Item</t>
+  </si>
+  <si>
+    <t>Repassar Patrick</t>
+  </si>
+  <si>
+    <t>Modificar View em Produção</t>
   </si>
 </sst>
 </file>
@@ -3770,17 +3776,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4157,11 +4163,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H198" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:H198">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="MIS_ODS"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="0"/>
     <filterColumn colId="7"/>
   </autoFilter>
   <tableColumns count="8">
@@ -8080,9 +8082,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8123,7 +8125,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="2" spans="1:8" ht="15.75" thickTop="1">
       <c r="A2" s="2" t="s">
         <v>220</v>
       </c>
@@ -8144,7 +8146,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>220</v>
       </c>
@@ -8165,7 +8167,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>220</v>
       </c>
@@ -8186,7 +8188,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="5" spans="1:8">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
@@ -8208,7 +8210,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
@@ -8230,7 +8232,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
@@ -8252,7 +8254,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
@@ -8274,7 +8276,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -8297,7 +8299,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="60.75" hidden="1" thickTop="1">
+    <row r="10" spans="1:8" ht="60">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -8321,7 +8323,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -8344,7 +8346,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="12" spans="1:8">
       <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
@@ -8366,7 +8368,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
@@ -8390,7 +8392,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="14" spans="1:8">
       <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
@@ -8414,7 +8416,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="90.75" hidden="1" thickTop="1">
+    <row r="15" spans="1:8" ht="90">
       <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
@@ -8438,7 +8440,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="30.75" hidden="1" thickTop="1">
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -8462,7 +8464,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="75.75" hidden="1" thickTop="1">
+    <row r="17" spans="1:8" ht="75">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -8486,7 +8488,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="30.75" hidden="1" thickTop="1">
+    <row r="18" spans="1:8" ht="30">
       <c r="A18" s="9" t="s">
         <v>20</v>
       </c>
@@ -8510,7 +8512,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="30.75" hidden="1" thickTop="1">
+    <row r="19" spans="1:8" ht="30">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -8534,7 +8536,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="30.75" hidden="1" thickTop="1">
+    <row r="20" spans="1:8" ht="30">
       <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
@@ -8558,7 +8560,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="45.75" hidden="1" thickTop="1">
+    <row r="21" spans="1:8" ht="45">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -8582,7 +8584,7 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="30.75" hidden="1" thickTop="1">
+    <row r="22" spans="1:8" ht="30">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
@@ -8608,7 +8610,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="23" spans="1:8">
       <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
@@ -8632,7 +8634,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="24" spans="1:8">
       <c r="A24" s="9" t="s">
         <v>20</v>
       </c>
@@ -8656,7 +8658,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="25" spans="1:8">
       <c r="A25" s="9" t="s">
         <v>20</v>
       </c>
@@ -8680,7 +8682,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="26" spans="1:8">
       <c r="A26" s="9" t="s">
         <v>20</v>
       </c>
@@ -8704,7 +8706,7 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="27" spans="1:8">
       <c r="A27" s="9" t="s">
         <v>20</v>
       </c>
@@ -8728,7 +8730,7 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="60.75" hidden="1" thickTop="1">
+    <row r="28" spans="1:8" ht="60">
       <c r="A28" s="9" t="s">
         <v>20</v>
       </c>
@@ -8752,7 +8754,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="30.75" hidden="1" thickTop="1">
+    <row r="29" spans="1:8" ht="30">
       <c r="A29" s="9" t="s">
         <v>20</v>
       </c>
@@ -8776,7 +8778,7 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="30" spans="1:8">
       <c r="A30" s="9" t="s">
         <v>20</v>
       </c>
@@ -8800,7 +8802,7 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="60.75" hidden="1" thickTop="1">
+    <row r="31" spans="1:8" ht="60">
       <c r="A31" s="9" t="s">
         <v>20</v>
       </c>
@@ -8824,7 +8826,7 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="30.75" hidden="1" thickTop="1">
+    <row r="32" spans="1:8" ht="30">
       <c r="A32" s="9" t="s">
         <v>20</v>
       </c>
@@ -8848,7 +8850,7 @@
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="33" spans="1:8">
       <c r="A33" s="9" t="s">
         <v>20</v>
       </c>
@@ -8872,7 +8874,7 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="34" spans="1:8">
       <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
@@ -8896,7 +8898,7 @@
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
@@ -8920,7 +8922,7 @@
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="30.75" hidden="1" thickTop="1">
+    <row r="36" spans="1:8" ht="30">
       <c r="A36" s="9" t="s">
         <v>20</v>
       </c>
@@ -8946,7 +8948,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="45.75" hidden="1" thickTop="1">
+    <row r="37" spans="1:8" ht="45">
       <c r="A37" s="9" t="s">
         <v>20</v>
       </c>
@@ -8972,7 +8974,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="38" spans="1:8">
       <c r="A38" s="9" t="s">
         <v>20</v>
       </c>
@@ -8996,7 +8998,7 @@
       </c>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="39" spans="1:8">
       <c r="A39" s="9" t="s">
         <v>20</v>
       </c>
@@ -9020,7 +9022,7 @@
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="40" spans="1:8">
       <c r="A40" s="9" t="s">
         <v>20</v>
       </c>
@@ -9044,7 +9046,7 @@
       </c>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" ht="45.75" hidden="1" thickTop="1">
+    <row r="41" spans="1:8" ht="45">
       <c r="A41" s="9" t="s">
         <v>20</v>
       </c>
@@ -9070,7 +9072,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="45.75" hidden="1" thickTop="1">
+    <row r="42" spans="1:8" ht="45">
       <c r="A42" s="9" t="s">
         <v>20</v>
       </c>
@@ -9094,7 +9096,7 @@
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" ht="45.75" hidden="1" thickTop="1">
+    <row r="43" spans="1:8" ht="45">
       <c r="A43" s="9" t="s">
         <v>20</v>
       </c>
@@ -9118,7 +9120,7 @@
       </c>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="44" spans="1:8">
       <c r="A44" s="9" t="s">
         <v>20</v>
       </c>
@@ -9142,7 +9144,7 @@
       </c>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="45" spans="1:8">
       <c r="A45" s="9" t="s">
         <v>20</v>
       </c>
@@ -9166,7 +9168,7 @@
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" ht="30.75" hidden="1" thickTop="1">
+    <row r="46" spans="1:8" ht="30">
       <c r="A46" s="9" t="s">
         <v>20</v>
       </c>
@@ -9192,7 +9194,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="45.75" hidden="1" thickTop="1">
+    <row r="47" spans="1:8" ht="45">
       <c r="A47" s="9" t="s">
         <v>20</v>
       </c>
@@ -9218,7 +9220,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="48" spans="1:8">
       <c r="A48" s="9" t="s">
         <v>20</v>
       </c>
@@ -9242,7 +9244,7 @@
       </c>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="49" spans="1:8">
       <c r="A49" s="9" t="s">
         <v>20</v>
       </c>
@@ -9266,7 +9268,7 @@
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="50" spans="1:8">
       <c r="A50" s="9" t="s">
         <v>20</v>
       </c>
@@ -9290,7 +9292,7 @@
       </c>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="51" spans="1:8">
       <c r="A51" s="9" t="s">
         <v>20</v>
       </c>
@@ -9314,7 +9316,7 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="45.75" hidden="1" thickTop="1">
+    <row r="52" spans="1:8" ht="45">
       <c r="A52" s="9" t="s">
         <v>20</v>
       </c>
@@ -9338,7 +9340,7 @@
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="45.75" hidden="1" thickTop="1">
+    <row r="53" spans="1:8" ht="45">
       <c r="A53" s="9" t="s">
         <v>20</v>
       </c>
@@ -9362,7 +9364,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="45.75" hidden="1" thickTop="1">
+    <row r="54" spans="1:8" ht="45">
       <c r="A54" s="9" t="s">
         <v>20</v>
       </c>
@@ -9388,7 +9390,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="55" spans="1:8">
       <c r="A55" s="9" t="s">
         <v>20</v>
       </c>
@@ -9414,7 +9416,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="56" spans="1:8">
       <c r="A56" s="9" t="s">
         <v>20</v>
       </c>
@@ -9440,7 +9442,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="57" spans="1:8">
       <c r="A57" s="9" t="s">
         <v>20</v>
       </c>
@@ -9466,7 +9468,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="58" spans="1:8">
       <c r="A58" s="9" t="s">
         <v>20</v>
       </c>
@@ -9492,7 +9494,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="59" spans="1:8">
       <c r="A59" s="9" t="s">
         <v>20</v>
       </c>
@@ -9518,7 +9520,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="60" spans="1:8">
       <c r="A60" s="9" t="s">
         <v>20</v>
       </c>
@@ -9544,7 +9546,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="30.75" hidden="1" thickTop="1">
+    <row r="61" spans="1:8" ht="30">
       <c r="A61" s="9" t="s">
         <v>20</v>
       </c>
@@ -9570,7 +9572,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="62" spans="1:8">
       <c r="A62" s="9" t="s">
         <v>20</v>
       </c>
@@ -9594,7 +9596,7 @@
       </c>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="63" spans="1:8">
       <c r="A63" s="9" t="s">
         <v>20</v>
       </c>
@@ -9618,7 +9620,7 @@
       </c>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="64" spans="1:8">
       <c r="A64" s="9" t="s">
         <v>20</v>
       </c>
@@ -9642,7 +9644,7 @@
       </c>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="65" spans="1:8">
       <c r="A65" s="9" t="s">
         <v>20</v>
       </c>
@@ -9666,7 +9668,7 @@
       </c>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" hidden="1" thickTop="1">
+    <row r="66" spans="1:8">
       <c r="A66" s="9" t="s">
         <v>20</v>
       </c>
@@ -9690,7 +9692,7 @@
       </c>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" thickTop="1">
+    <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
         <v>339</v>
       </c>
@@ -9926,7 +9928,7 @@
         <v>361</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>1023</v>
+        <v>1042</v>
       </c>
       <c r="H76" s="2"/>
     </row>
@@ -9950,7 +9952,7 @@
         <v>363</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
       <c r="H77" s="2"/>
     </row>
@@ -9973,7 +9975,9 @@
       <c r="F78" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="G78" s="10"/>
+      <c r="G78" s="10" t="s">
+        <v>1042</v>
+      </c>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8">
@@ -9996,7 +10000,7 @@
         <v>368</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>1022</v>
+        <v>1068</v>
       </c>
       <c r="H79" s="2"/>
     </row>
@@ -10020,7 +10024,7 @@
         <v>370</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>1022</v>
+        <v>1068</v>
       </c>
       <c r="H80" s="2"/>
     </row>
@@ -10044,7 +10048,7 @@
         <v>371</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>1022</v>
+        <v>1068</v>
       </c>
       <c r="H81" s="2"/>
     </row>
@@ -10067,7 +10071,9 @@
       <c r="F82" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="G82" s="10"/>
+      <c r="G82" s="10" t="s">
+        <v>1042</v>
+      </c>
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="1:8">
@@ -10089,7 +10095,9 @@
       <c r="F83" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="G83" s="10"/>
+      <c r="G83" s="10" t="s">
+        <v>1042</v>
+      </c>
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:8" ht="30">
@@ -10111,7 +10119,9 @@
       <c r="F84" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="G84" s="10"/>
+      <c r="G84" s="10" t="s">
+        <v>1042</v>
+      </c>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:8" ht="150">
@@ -10134,7 +10144,7 @@
         <v>380</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
       <c r="H85" s="2"/>
     </row>
@@ -10158,7 +10168,7 @@
         <v>381</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
       <c r="H86" s="2"/>
     </row>
@@ -10206,7 +10216,7 @@
         <v>385</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
       <c r="H88" s="2"/>
     </row>
@@ -10230,7 +10240,7 @@
         <v>387</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
       <c r="H89" s="2"/>
     </row>
@@ -10254,11 +10264,11 @@
         <v>389</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="1:8" hidden="1">
+    <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
         <v>108</v>
       </c>
@@ -10278,11 +10288,11 @@
         <v>392</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>1023</v>
+        <v>1069</v>
       </c>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="1:8" hidden="1">
+    <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
         <v>108</v>
       </c>
@@ -10302,11 +10312,11 @@
         <v>394</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>1023</v>
+        <v>1069</v>
       </c>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="1:8" hidden="1">
+    <row r="93" spans="1:8">
       <c r="A93" s="9" t="s">
         <v>108</v>
       </c>
@@ -10328,7 +10338,7 @@
       <c r="G93" s="10"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:8" hidden="1">
+    <row r="94" spans="1:8">
       <c r="A94" s="9" t="s">
         <v>108</v>
       </c>
@@ -10352,7 +10362,7 @@
       </c>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="1:8" hidden="1">
+    <row r="95" spans="1:8">
       <c r="A95" s="9" t="s">
         <v>108</v>
       </c>
@@ -10374,7 +10384,7 @@
       <c r="G95" s="10"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8" hidden="1">
+    <row r="96" spans="1:8">
       <c r="A96" s="9" t="s">
         <v>108</v>
       </c>
@@ -10395,7 +10405,7 @@
       </c>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="1:8" hidden="1">
+    <row r="97" spans="1:8">
       <c r="A97" s="9" t="s">
         <v>108</v>
       </c>
@@ -10416,7 +10426,7 @@
       </c>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="1:8" hidden="1">
+    <row r="98" spans="1:8">
       <c r="A98" s="9" t="s">
         <v>108</v>
       </c>
@@ -10437,7 +10447,7 @@
       </c>
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="1:8" hidden="1">
+    <row r="99" spans="1:8">
       <c r="A99" s="9" t="s">
         <v>108</v>
       </c>
@@ -10458,7 +10468,7 @@
       </c>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8" hidden="1">
+    <row r="100" spans="1:8">
       <c r="A100" s="9" t="s">
         <v>108</v>
       </c>
@@ -10479,7 +10489,7 @@
       </c>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="1:8" hidden="1">
+    <row r="101" spans="1:8">
       <c r="A101" s="9" t="s">
         <v>108</v>
       </c>
@@ -10500,7 +10510,7 @@
       </c>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="1:8" hidden="1">
+    <row r="102" spans="1:8">
       <c r="A102" s="9" t="s">
         <v>108</v>
       </c>
@@ -10521,7 +10531,7 @@
       </c>
       <c r="H102" s="2"/>
     </row>
-    <row r="103" spans="1:8" hidden="1">
+    <row r="103" spans="1:8">
       <c r="A103" s="9" t="s">
         <v>108</v>
       </c>
@@ -10542,7 +10552,7 @@
       </c>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="1:8" hidden="1">
+    <row r="104" spans="1:8">
       <c r="A104" s="9" t="s">
         <v>108</v>
       </c>
@@ -10564,7 +10574,7 @@
       <c r="G104" s="10"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="1:8" hidden="1">
+    <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
         <v>108</v>
       </c>
@@ -10588,7 +10598,7 @@
       </c>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="1:8" hidden="1">
+    <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
         <v>108</v>
       </c>
@@ -10612,7 +10622,7 @@
       </c>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="1:8" hidden="1">
+    <row r="107" spans="1:8">
       <c r="A107" s="2" t="s">
         <v>108</v>
       </c>
@@ -10636,7 +10646,7 @@
       </c>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="1:8" hidden="1">
+    <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
         <v>108</v>
       </c>
@@ -10660,7 +10670,7 @@
       </c>
       <c r="H108" s="2"/>
     </row>
-    <row r="109" spans="1:8" hidden="1">
+    <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -10684,7 +10694,7 @@
       </c>
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="1:8" hidden="1">
+    <row r="110" spans="1:8">
       <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
@@ -10708,7 +10718,7 @@
       </c>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="1:8" hidden="1">
+    <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
         <v>108</v>
       </c>
@@ -10732,7 +10742,7 @@
       </c>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="1:8" hidden="1">
+    <row r="112" spans="1:8">
       <c r="A112" s="2" t="s">
         <v>108</v>
       </c>
@@ -10756,7 +10766,7 @@
       </c>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="1:8" hidden="1">
+    <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
         <v>108</v>
       </c>
@@ -10780,7 +10790,7 @@
       </c>
       <c r="H113" s="2"/>
     </row>
-    <row r="114" spans="1:8" hidden="1">
+    <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
         <v>108</v>
       </c>
@@ -10804,7 +10814,7 @@
       </c>
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="1:8" hidden="1">
+    <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
         <v>108</v>
       </c>
@@ -10825,7 +10835,7 @@
       </c>
       <c r="H115" s="2"/>
     </row>
-    <row r="116" spans="1:8" hidden="1">
+    <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
         <v>108</v>
       </c>
@@ -10846,7 +10856,7 @@
       </c>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:8" hidden="1">
+    <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
         <v>108</v>
       </c>
@@ -10867,7 +10877,7 @@
       </c>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="1:8" hidden="1">
+    <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
         <v>108</v>
       </c>
@@ -10889,7 +10899,7 @@
       <c r="G118" s="10"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:8" hidden="1">
+    <row r="119" spans="1:8">
       <c r="A119" s="9" t="s">
         <v>108</v>
       </c>
@@ -10911,7 +10921,7 @@
       <c r="G119" s="10"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="1:8" hidden="1">
+    <row r="120" spans="1:8">
       <c r="A120" s="9" t="s">
         <v>108</v>
       </c>
@@ -10933,7 +10943,7 @@
       <c r="G120" s="10"/>
       <c r="H120" s="2"/>
     </row>
-    <row r="121" spans="1:8" hidden="1">
+    <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
         <v>108</v>
       </c>
@@ -10955,7 +10965,7 @@
       <c r="G121" s="10"/>
       <c r="H121" s="2"/>
     </row>
-    <row r="122" spans="1:8" hidden="1">
+    <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
         <v>108</v>
       </c>
@@ -10976,7 +10986,7 @@
       </c>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="1:8" hidden="1">
+    <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
         <v>108</v>
       </c>
@@ -10997,7 +11007,7 @@
       </c>
       <c r="H123" s="2"/>
     </row>
-    <row r="124" spans="1:8" hidden="1">
+    <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
         <v>108</v>
       </c>
@@ -11018,7 +11028,7 @@
       </c>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="1:8" hidden="1">
+    <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
         <v>108</v>
       </c>
@@ -11039,7 +11049,7 @@
       </c>
       <c r="H125" s="2"/>
     </row>
-    <row r="126" spans="1:8" hidden="1">
+    <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
         <v>108</v>
       </c>
@@ -11060,7 +11070,7 @@
       </c>
       <c r="H126" s="2"/>
     </row>
-    <row r="127" spans="1:8" hidden="1">
+    <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
         <v>108</v>
       </c>
@@ -11081,7 +11091,7 @@
       </c>
       <c r="H127" s="2"/>
     </row>
-    <row r="128" spans="1:8" hidden="1">
+    <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
         <v>108</v>
       </c>
@@ -11102,7 +11112,7 @@
       </c>
       <c r="H128" s="2"/>
     </row>
-    <row r="129" spans="1:8" hidden="1">
+    <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
         <v>108</v>
       </c>
@@ -11123,7 +11133,7 @@
       </c>
       <c r="H129" s="2"/>
     </row>
-    <row r="130" spans="1:8" hidden="1">
+    <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
         <v>108</v>
       </c>
@@ -11145,7 +11155,7 @@
       <c r="G130" s="10"/>
       <c r="H130" s="2"/>
     </row>
-    <row r="131" spans="1:8" hidden="1">
+    <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
         <v>108</v>
       </c>
@@ -11166,7 +11176,7 @@
       </c>
       <c r="H131" s="2"/>
     </row>
-    <row r="132" spans="1:8" hidden="1">
+    <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
         <v>108</v>
       </c>
@@ -11187,7 +11197,7 @@
       </c>
       <c r="H132" s="2"/>
     </row>
-    <row r="133" spans="1:8" hidden="1">
+    <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
         <v>108</v>
       </c>
@@ -11208,7 +11218,7 @@
       </c>
       <c r="H133" s="2"/>
     </row>
-    <row r="134" spans="1:8" hidden="1">
+    <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
         <v>108</v>
       </c>
@@ -11229,7 +11239,7 @@
       </c>
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="1:8" hidden="1">
+    <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
         <v>108</v>
       </c>
@@ -11250,7 +11260,7 @@
       </c>
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="1:8" hidden="1">
+    <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
         <v>108</v>
       </c>
@@ -11271,7 +11281,7 @@
       </c>
       <c r="H136" s="2"/>
     </row>
-    <row r="137" spans="1:8" hidden="1">
+    <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
         <v>108</v>
       </c>
@@ -11292,7 +11302,7 @@
       </c>
       <c r="H137" s="2"/>
     </row>
-    <row r="138" spans="1:8" hidden="1">
+    <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
         <v>108</v>
       </c>
@@ -11313,7 +11323,7 @@
       </c>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:8" hidden="1">
+    <row r="139" spans="1:8">
       <c r="A139" s="2" t="s">
         <v>108</v>
       </c>
@@ -11335,7 +11345,7 @@
       <c r="G139" s="10"/>
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="1:8" hidden="1">
+    <row r="140" spans="1:8">
       <c r="A140" s="2" t="s">
         <v>108</v>
       </c>
@@ -11359,7 +11369,7 @@
       </c>
       <c r="H140" s="2"/>
     </row>
-    <row r="141" spans="1:8" hidden="1">
+    <row r="141" spans="1:8">
       <c r="A141" s="2" t="s">
         <v>108</v>
       </c>
@@ -11383,7 +11393,7 @@
       </c>
       <c r="H141" s="2"/>
     </row>
-    <row r="142" spans="1:8" hidden="1">
+    <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
         <v>108</v>
       </c>
@@ -11407,7 +11417,7 @@
       </c>
       <c r="H142" s="2"/>
     </row>
-    <row r="143" spans="1:8" hidden="1">
+    <row r="143" spans="1:8">
       <c r="A143" s="2" t="s">
         <v>108</v>
       </c>
@@ -11429,7 +11439,7 @@
       <c r="G143" s="10"/>
       <c r="H143" s="2"/>
     </row>
-    <row r="144" spans="1:8" hidden="1">
+    <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
         <v>108</v>
       </c>
@@ -11453,7 +11463,7 @@
       </c>
       <c r="H144" s="2"/>
     </row>
-    <row r="145" spans="1:8" hidden="1">
+    <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
         <v>108</v>
       </c>
@@ -11477,7 +11487,7 @@
       </c>
       <c r="H145" s="2"/>
     </row>
-    <row r="146" spans="1:8" hidden="1">
+    <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
         <v>108</v>
       </c>
@@ -11501,7 +11511,7 @@
       </c>
       <c r="H146" s="2"/>
     </row>
-    <row r="147" spans="1:8" hidden="1">
+    <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
         <v>108</v>
       </c>
@@ -11523,7 +11533,7 @@
       <c r="G147" s="10"/>
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="1:8" hidden="1">
+    <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
         <v>108</v>
       </c>
@@ -11544,7 +11554,7 @@
       </c>
       <c r="H148" s="2"/>
     </row>
-    <row r="149" spans="1:8" hidden="1">
+    <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
         <v>108</v>
       </c>
@@ -11568,7 +11578,7 @@
       </c>
       <c r="H149" s="2"/>
     </row>
-    <row r="150" spans="1:8" hidden="1">
+    <row r="150" spans="1:8">
       <c r="A150" s="2" t="s">
         <v>108</v>
       </c>
@@ -11592,7 +11602,7 @@
       </c>
       <c r="H150" s="2"/>
     </row>
-    <row r="151" spans="1:8" hidden="1">
+    <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
         <v>108</v>
       </c>
@@ -11616,7 +11626,7 @@
       </c>
       <c r="H151" s="2"/>
     </row>
-    <row r="152" spans="1:8" hidden="1">
+    <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
         <v>108</v>
       </c>
@@ -11638,7 +11648,7 @@
       <c r="G152" s="10"/>
       <c r="H152" s="2"/>
     </row>
-    <row r="153" spans="1:8" hidden="1">
+    <row r="153" spans="1:8">
       <c r="A153" s="2" t="s">
         <v>108</v>
       </c>
@@ -11659,7 +11669,7 @@
       </c>
       <c r="H153" s="2"/>
     </row>
-    <row r="154" spans="1:8" hidden="1">
+    <row r="154" spans="1:8">
       <c r="A154" s="2" t="s">
         <v>108</v>
       </c>
@@ -11683,7 +11693,7 @@
       </c>
       <c r="H154" s="2"/>
     </row>
-    <row r="155" spans="1:8" hidden="1">
+    <row r="155" spans="1:8">
       <c r="A155" s="2" t="s">
         <v>108</v>
       </c>
@@ -11707,7 +11717,7 @@
       </c>
       <c r="H155" s="2"/>
     </row>
-    <row r="156" spans="1:8" hidden="1">
+    <row r="156" spans="1:8">
       <c r="A156" s="2" t="s">
         <v>108</v>
       </c>
@@ -11731,7 +11741,7 @@
       </c>
       <c r="H156" s="2"/>
     </row>
-    <row r="157" spans="1:8" hidden="1">
+    <row r="157" spans="1:8">
       <c r="A157" s="2" t="s">
         <v>108</v>
       </c>
@@ -11753,7 +11763,7 @@
       <c r="G157" s="10"/>
       <c r="H157" s="2"/>
     </row>
-    <row r="158" spans="1:8" hidden="1">
+    <row r="158" spans="1:8">
       <c r="A158" s="2" t="s">
         <v>108</v>
       </c>
@@ -11777,7 +11787,7 @@
       </c>
       <c r="H158" s="2"/>
     </row>
-    <row r="159" spans="1:8" hidden="1">
+    <row r="159" spans="1:8">
       <c r="A159" s="2" t="s">
         <v>108</v>
       </c>
@@ -11801,7 +11811,7 @@
       </c>
       <c r="H159" s="2"/>
     </row>
-    <row r="160" spans="1:8" hidden="1">
+    <row r="160" spans="1:8">
       <c r="A160" s="2" t="s">
         <v>108</v>
       </c>
@@ -11825,7 +11835,7 @@
       </c>
       <c r="H160" s="2"/>
     </row>
-    <row r="161" spans="1:8" hidden="1">
+    <row r="161" spans="1:8">
       <c r="A161" s="2" t="s">
         <v>108</v>
       </c>
@@ -11847,7 +11857,7 @@
       <c r="G161" s="10"/>
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="1:8" hidden="1">
+    <row r="162" spans="1:8">
       <c r="A162" s="2" t="s">
         <v>108</v>
       </c>
@@ -11869,7 +11879,7 @@
       <c r="G162" s="10"/>
       <c r="H162" s="2"/>
     </row>
-    <row r="163" spans="1:8" hidden="1">
+    <row r="163" spans="1:8">
       <c r="A163" s="2" t="s">
         <v>108</v>
       </c>
@@ -11891,7 +11901,7 @@
       <c r="G163" s="10"/>
       <c r="H163" s="2"/>
     </row>
-    <row r="164" spans="1:8" ht="60" hidden="1">
+    <row r="164" spans="1:8" ht="60">
       <c r="A164" s="2" t="s">
         <v>108</v>
       </c>
@@ -11915,7 +11925,7 @@
       </c>
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="1:8" hidden="1">
+    <row r="165" spans="1:8">
       <c r="A165" s="2" t="s">
         <v>108</v>
       </c>
@@ -11939,7 +11949,7 @@
       </c>
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="1:8" hidden="1">
+    <row r="166" spans="1:8">
       <c r="A166" s="2" t="s">
         <v>108</v>
       </c>
@@ -11961,7 +11971,7 @@
       <c r="G166" s="10"/>
       <c r="H166" s="2"/>
     </row>
-    <row r="167" spans="1:8" hidden="1">
+    <row r="167" spans="1:8">
       <c r="A167" s="2" t="s">
         <v>108</v>
       </c>
@@ -11983,7 +11993,7 @@
       <c r="G167" s="10"/>
       <c r="H167" s="2"/>
     </row>
-    <row r="168" spans="1:8" hidden="1">
+    <row r="168" spans="1:8">
       <c r="A168" s="2" t="s">
         <v>108</v>
       </c>
@@ -12005,7 +12015,7 @@
       <c r="G168" s="10"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:8" hidden="1">
+    <row r="169" spans="1:8">
       <c r="A169" s="12" t="s">
         <v>3</v>
       </c>
@@ -12029,7 +12039,7 @@
       </c>
       <c r="H169" s="2"/>
     </row>
-    <row r="170" spans="1:8" hidden="1">
+    <row r="170" spans="1:8">
       <c r="A170" s="12" t="s">
         <v>3</v>
       </c>
@@ -12051,7 +12061,7 @@
       <c r="G170" s="10"/>
       <c r="H170" s="2"/>
     </row>
-    <row r="171" spans="1:8" hidden="1">
+    <row r="171" spans="1:8">
       <c r="A171" s="12" t="s">
         <v>3</v>
       </c>
@@ -12073,7 +12083,7 @@
       <c r="G171" s="10"/>
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="1:8" hidden="1">
+    <row r="172" spans="1:8">
       <c r="A172" s="12" t="s">
         <v>3</v>
       </c>
@@ -12095,7 +12105,7 @@
       <c r="G172" s="10"/>
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="1:8" hidden="1">
+    <row r="173" spans="1:8">
       <c r="A173" s="12" t="s">
         <v>3</v>
       </c>
@@ -12117,7 +12127,7 @@
       <c r="G173" s="10"/>
       <c r="H173" s="2"/>
     </row>
-    <row r="174" spans="1:8" hidden="1">
+    <row r="174" spans="1:8">
       <c r="A174" s="12" t="s">
         <v>3</v>
       </c>
@@ -12139,7 +12149,7 @@
       <c r="G174" s="10"/>
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="1:8" hidden="1">
+    <row r="175" spans="1:8">
       <c r="A175" s="12" t="s">
         <v>3</v>
       </c>
@@ -12161,7 +12171,7 @@
       <c r="G175" s="10"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:8" hidden="1">
+    <row r="176" spans="1:8">
       <c r="A176" s="12" t="s">
         <v>3</v>
       </c>
@@ -12185,7 +12195,7 @@
       </c>
       <c r="H176" s="2"/>
     </row>
-    <row r="177" spans="1:8" hidden="1">
+    <row r="177" spans="1:8">
       <c r="A177" s="12" t="s">
         <v>3</v>
       </c>
@@ -12209,7 +12219,7 @@
       </c>
       <c r="H177" s="2"/>
     </row>
-    <row r="178" spans="1:8" hidden="1">
+    <row r="178" spans="1:8">
       <c r="A178" s="12" t="s">
         <v>3</v>
       </c>
@@ -12233,7 +12243,7 @@
       </c>
       <c r="H178" s="2"/>
     </row>
-    <row r="179" spans="1:8" hidden="1">
+    <row r="179" spans="1:8">
       <c r="A179" s="12" t="s">
         <v>3</v>
       </c>
@@ -12257,7 +12267,7 @@
       </c>
       <c r="H179" s="2"/>
     </row>
-    <row r="180" spans="1:8" hidden="1">
+    <row r="180" spans="1:8">
       <c r="A180" s="12" t="s">
         <v>3</v>
       </c>
@@ -12281,7 +12291,7 @@
       </c>
       <c r="H180" s="2"/>
     </row>
-    <row r="181" spans="1:8" ht="60" hidden="1">
+    <row r="181" spans="1:8" ht="60">
       <c r="A181" s="12" t="s">
         <v>3</v>
       </c>
@@ -12305,7 +12315,7 @@
       </c>
       <c r="H181" s="2"/>
     </row>
-    <row r="182" spans="1:8" hidden="1">
+    <row r="182" spans="1:8">
       <c r="A182" s="12" t="s">
         <v>3</v>
       </c>
@@ -12327,7 +12337,7 @@
       <c r="G182" s="10"/>
       <c r="H182" s="2"/>
     </row>
-    <row r="183" spans="1:8" hidden="1">
+    <row r="183" spans="1:8">
       <c r="A183" s="14" t="s">
         <v>3</v>
       </c>
@@ -12349,7 +12359,7 @@
       <c r="G183" s="10"/>
       <c r="H183" s="2"/>
     </row>
-    <row r="184" spans="1:8" hidden="1">
+    <row r="184" spans="1:8">
       <c r="A184" s="12" t="s">
         <v>3</v>
       </c>
@@ -12371,7 +12381,7 @@
       <c r="G184" s="10"/>
       <c r="H184" s="2"/>
     </row>
-    <row r="185" spans="1:8" ht="30" hidden="1">
+    <row r="185" spans="1:8" ht="30">
       <c r="A185" s="12" t="s">
         <v>3</v>
       </c>
@@ -12395,7 +12405,7 @@
       </c>
       <c r="H185" s="2"/>
     </row>
-    <row r="186" spans="1:8" hidden="1">
+    <row r="186" spans="1:8">
       <c r="A186" s="12" t="s">
         <v>3</v>
       </c>
@@ -12419,7 +12429,7 @@
       </c>
       <c r="H186" s="2"/>
     </row>
-    <row r="187" spans="1:8" hidden="1">
+    <row r="187" spans="1:8">
       <c r="A187" s="12" t="s">
         <v>3</v>
       </c>
@@ -12440,7 +12450,7 @@
       </c>
       <c r="H187" s="2"/>
     </row>
-    <row r="188" spans="1:8" hidden="1">
+    <row r="188" spans="1:8">
       <c r="A188" s="12" t="s">
         <v>3</v>
       </c>
@@ -12462,7 +12472,7 @@
       <c r="G188" s="10"/>
       <c r="H188" s="2"/>
     </row>
-    <row r="189" spans="1:8" ht="30" hidden="1">
+    <row r="189" spans="1:8" ht="30">
       <c r="A189" s="12" t="s">
         <v>3</v>
       </c>
@@ -12486,7 +12496,7 @@
       </c>
       <c r="H189" s="2"/>
     </row>
-    <row r="190" spans="1:8" hidden="1">
+    <row r="190" spans="1:8">
       <c r="A190" s="12" t="s">
         <v>3</v>
       </c>
@@ -12510,7 +12520,7 @@
       </c>
       <c r="H190" s="2"/>
     </row>
-    <row r="191" spans="1:8" hidden="1">
+    <row r="191" spans="1:8">
       <c r="A191" s="12" t="s">
         <v>3</v>
       </c>
@@ -12534,7 +12544,7 @@
       </c>
       <c r="H191" s="2"/>
     </row>
-    <row r="192" spans="1:8" hidden="1">
+    <row r="192" spans="1:8">
       <c r="A192" s="12" t="s">
         <v>3</v>
       </c>
@@ -12558,7 +12568,7 @@
       </c>
       <c r="H192" s="2"/>
     </row>
-    <row r="193" spans="1:8" hidden="1">
+    <row r="193" spans="1:8">
       <c r="A193" s="12" t="s">
         <v>3</v>
       </c>
@@ -12582,7 +12592,7 @@
       </c>
       <c r="H193" s="2"/>
     </row>
-    <row r="194" spans="1:8" hidden="1">
+    <row r="194" spans="1:8">
       <c r="A194" s="12" t="s">
         <v>3</v>
       </c>
@@ -12606,7 +12616,7 @@
       </c>
       <c r="H194" s="2"/>
     </row>
-    <row r="195" spans="1:8" hidden="1">
+    <row r="195" spans="1:8">
       <c r="A195" s="12" t="s">
         <v>3</v>
       </c>
@@ -12630,7 +12640,7 @@
       </c>
       <c r="H195" s="2"/>
     </row>
-    <row r="196" spans="1:8" hidden="1">
+    <row r="196" spans="1:8">
       <c r="A196" s="12" t="s">
         <v>3</v>
       </c>
@@ -12654,7 +12664,7 @@
       </c>
       <c r="H196" s="2"/>
     </row>
-    <row r="197" spans="1:8" hidden="1">
+    <row r="197" spans="1:8">
       <c r="A197" s="12" t="s">
         <v>3</v>
       </c>
@@ -12678,7 +12688,7 @@
       </c>
       <c r="H197" s="2"/>
     </row>
-    <row r="198" spans="1:8" hidden="1">
+    <row r="198" spans="1:8">
       <c r="A198" s="12" t="s">
         <v>3</v>
       </c>
@@ -15568,7 +15578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
@@ -17636,7 +17646,7 @@
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="41" t="s">
         <v>776</v>
       </c>
       <c r="B79" s="14" t="s">
@@ -17661,12 +17671,12 @@
       <c r="I79" s="35" t="s">
         <v>1057</v>
       </c>
-      <c r="J79" s="41" t="s">
+      <c r="J79" s="43" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="41" t="s">
         <v>776</v>
       </c>
       <c r="B80" s="14" t="s">
@@ -17691,10 +17701,10 @@
       <c r="I80" s="35" t="s">
         <v>1057</v>
       </c>
-      <c r="J80" s="41"/>
+      <c r="J80" s="43"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="42" t="s">
+      <c r="A81" s="41" t="s">
         <v>776</v>
       </c>
       <c r="B81" s="14" t="s">
@@ -17719,7 +17729,7 @@
       <c r="I81" s="35" t="s">
         <v>1057</v>
       </c>
-      <c r="J81" s="41"/>
+      <c r="J81" s="43"/>
     </row>
     <row r="82" spans="1:10" ht="270">
       <c r="A82" s="29" t="s">
@@ -17860,7 +17870,7 @@
       <c r="I87" s="35" t="s">
         <v>1042</v>
       </c>
-      <c r="J87" s="41" t="s">
+      <c r="J87" s="43" t="s">
         <v>1058</v>
       </c>
     </row>
@@ -17888,7 +17898,7 @@
       <c r="I88" s="35" t="s">
         <v>1042</v>
       </c>
-      <c r="J88" s="41"/>
+      <c r="J88" s="43"/>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="24" t="s">
@@ -17914,7 +17924,7 @@
       <c r="I89" s="35" t="s">
         <v>1042</v>
       </c>
-      <c r="J89" s="41"/>
+      <c r="J89" s="43"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="24" t="s">
@@ -17940,7 +17950,7 @@
       <c r="I90" s="35" t="s">
         <v>1042</v>
       </c>
-      <c r="J90" s="41"/>
+      <c r="J90" s="43"/>
     </row>
     <row r="91" spans="1:10" ht="165">
       <c r="A91" s="30" t="s">
@@ -18012,7 +18022,7 @@
       <c r="I93" s="35" t="s">
         <v>1061</v>
       </c>
-      <c r="J93" s="41" t="s">
+      <c r="J93" s="43" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -18040,7 +18050,7 @@
       <c r="I94" s="35" t="s">
         <v>1061</v>
       </c>
-      <c r="J94" s="41"/>
+      <c r="J94" s="43"/>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="24" t="s">
@@ -18066,7 +18076,7 @@
       <c r="I95" s="35" t="s">
         <v>1061</v>
       </c>
-      <c r="J95" s="41"/>
+      <c r="J95" s="43"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="24" t="s">
@@ -18092,7 +18102,7 @@
       <c r="I96" s="35" t="s">
         <v>1061</v>
       </c>
-      <c r="J96" s="41"/>
+      <c r="J96" s="43"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="24" t="s">
@@ -18118,7 +18128,7 @@
       <c r="I97" s="35" t="s">
         <v>1061</v>
       </c>
-      <c r="J97" s="41" t="s">
+      <c r="J97" s="43" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -18146,7 +18156,7 @@
       <c r="I98" s="35" t="s">
         <v>1061</v>
       </c>
-      <c r="J98" s="41"/>
+      <c r="J98" s="43"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="24" t="s">
@@ -18172,7 +18182,7 @@
       <c r="I99" s="35" t="s">
         <v>1061</v>
       </c>
-      <c r="J99" s="41"/>
+      <c r="J99" s="43"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="24" t="s">
@@ -18198,7 +18208,7 @@
       <c r="I100" s="35" t="s">
         <v>1061</v>
       </c>
-      <c r="J100" s="41"/>
+      <c r="J100" s="43"/>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="24" t="s">
@@ -18226,7 +18236,7 @@
       <c r="I101" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="J101" s="41" t="s">
+      <c r="J101" s="43" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -18256,7 +18266,7 @@
       <c r="I102" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="J102" s="41"/>
+      <c r="J102" s="43"/>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="24" t="s">
@@ -18284,7 +18294,7 @@
       <c r="I103" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="J103" s="41"/>
+      <c r="J103" s="43"/>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="24" t="s">
@@ -18312,7 +18322,7 @@
       <c r="I104" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="J104" s="41"/>
+      <c r="J104" s="43"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="24" t="s">
@@ -18340,7 +18350,7 @@
       <c r="I105" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="J105" s="41" t="s">
+      <c r="J105" s="43" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -18370,7 +18380,7 @@
       <c r="I106" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="J106" s="41"/>
+      <c r="J106" s="43"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="24" t="s">
@@ -18398,7 +18408,7 @@
       <c r="I107" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="J107" s="41"/>
+      <c r="J107" s="43"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="24" t="s">
@@ -18426,7 +18436,7 @@
       <c r="I108" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="J108" s="41"/>
+      <c r="J108" s="43"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="9" t="s">
@@ -18454,7 +18464,7 @@
       <c r="I109" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="J109" s="41" t="s">
+      <c r="J109" s="43" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -18484,7 +18494,7 @@
       <c r="I110" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="J110" s="41"/>
+      <c r="J110" s="43"/>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="9" t="s">
@@ -18512,7 +18522,7 @@
       <c r="I111" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="J111" s="41"/>
+      <c r="J111" s="43"/>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="9" t="s">
@@ -18540,7 +18550,7 @@
       <c r="I112" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="J112" s="41"/>
+      <c r="J112" s="43"/>
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" s="24" t="s">
@@ -18566,7 +18576,7 @@
       <c r="I113" s="35" t="s">
         <v>1061</v>
       </c>
-      <c r="J113" s="41" t="s">
+      <c r="J113" s="43" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -18594,7 +18604,7 @@
       <c r="I114" s="35" t="s">
         <v>1061</v>
       </c>
-      <c r="J114" s="41"/>
+      <c r="J114" s="43"/>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="24" t="s">
@@ -18620,7 +18630,7 @@
       <c r="I115" s="35" t="s">
         <v>1061</v>
       </c>
-      <c r="J115" s="41"/>
+      <c r="J115" s="43"/>
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1">
       <c r="A116" s="9" t="s">
@@ -18648,7 +18658,7 @@
       <c r="I116" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="J116" s="41" t="s">
+      <c r="J116" s="43" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -18678,7 +18688,7 @@
       <c r="I117" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="J117" s="41"/>
+      <c r="J117" s="43"/>
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" s="9" t="s">
@@ -18706,7 +18716,7 @@
       <c r="I118" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="J118" s="41" t="s">
+      <c r="J118" s="43" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -18736,7 +18746,7 @@
       <c r="I119" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="J119" s="41"/>
+      <c r="J119" s="43"/>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="24" t="s">
@@ -18762,7 +18772,7 @@
       <c r="I120" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="J120" s="41"/>
+      <c r="J120" s="43"/>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="24" t="s">
@@ -18788,7 +18798,7 @@
       <c r="I121" s="35" t="s">
         <v>1061</v>
       </c>
-      <c r="J121" s="41" t="s">
+      <c r="J121" s="43" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -18816,7 +18826,7 @@
       <c r="I122" s="35" t="s">
         <v>1061</v>
       </c>
-      <c r="J122" s="41"/>
+      <c r="J122" s="43"/>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="24" t="s">
@@ -18842,7 +18852,7 @@
       <c r="I123" s="35" t="s">
         <v>1061</v>
       </c>
-      <c r="J123" s="41"/>
+      <c r="J123" s="43"/>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="9" t="s">
@@ -20023,7 +20033,7 @@
       <c r="I171" s="35" t="s">
         <v>1063</v>
       </c>
-      <c r="J171" s="43" t="s">
+      <c r="J171" s="44" t="s">
         <v>1064</v>
       </c>
     </row>
@@ -20051,7 +20061,7 @@
       <c r="I172" s="35" t="s">
         <v>1063</v>
       </c>
-      <c r="J172" s="43"/>
+      <c r="J172" s="44"/>
     </row>
     <row r="173" spans="1:10" ht="135">
       <c r="A173" s="24" t="s">
@@ -20077,7 +20087,7 @@
       <c r="I173" s="35" t="s">
         <v>1063</v>
       </c>
-      <c r="J173" s="43"/>
+      <c r="J173" s="44"/>
     </row>
     <row r="174" spans="1:10" ht="135">
       <c r="A174" s="24" t="s">
@@ -20103,7 +20113,7 @@
       <c r="I174" s="35" t="s">
         <v>1063</v>
       </c>
-      <c r="J174" s="43"/>
+      <c r="J174" s="44"/>
     </row>
     <row r="175" spans="1:10" ht="135">
       <c r="A175" s="24" t="s">
@@ -20129,7 +20139,7 @@
       <c r="I175" s="35" t="s">
         <v>1063</v>
       </c>
-      <c r="J175" s="43"/>
+      <c r="J175" s="44"/>
     </row>
     <row r="176" spans="1:10" ht="135">
       <c r="A176" s="24" t="s">
@@ -20155,7 +20165,7 @@
       <c r="I176" s="35" t="s">
         <v>1063</v>
       </c>
-      <c r="J176" s="43"/>
+      <c r="J176" s="44"/>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="24" t="s">
@@ -20181,7 +20191,7 @@
       <c r="I177" s="35" t="s">
         <v>1063</v>
       </c>
-      <c r="J177" s="43"/>
+      <c r="J177" s="44"/>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="24" t="s">
@@ -20207,7 +20217,7 @@
       <c r="I178" s="35" t="s">
         <v>1063</v>
       </c>
-      <c r="J178" s="43"/>
+      <c r="J178" s="44"/>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="24" t="s">
@@ -20233,7 +20243,7 @@
       <c r="I179" s="35" t="s">
         <v>1063</v>
       </c>
-      <c r="J179" s="43"/>
+      <c r="J179" s="44"/>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="24" t="s">
@@ -20259,7 +20269,7 @@
       <c r="I180" s="35" t="s">
         <v>1063</v>
       </c>
-      <c r="J180" s="43"/>
+      <c r="J180" s="44"/>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="23" t="s">
@@ -20285,7 +20295,7 @@
       <c r="I181" s="35" t="s">
         <v>1063</v>
       </c>
-      <c r="J181" s="43"/>
+      <c r="J181" s="44"/>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="23" t="s">
@@ -20311,7 +20321,7 @@
       <c r="I182" s="35" t="s">
         <v>1063</v>
       </c>
-      <c r="J182" s="43"/>
+      <c r="J182" s="44"/>
     </row>
     <row r="183" spans="1:10" ht="30">
       <c r="A183" s="23" t="s">
@@ -20337,7 +20347,7 @@
       <c r="I183" s="35" t="s">
         <v>1063</v>
       </c>
-      <c r="J183" s="43"/>
+      <c r="J183" s="44"/>
     </row>
     <row r="184" spans="1:10" ht="30">
       <c r="A184" s="23" t="s">
@@ -20363,7 +20373,7 @@
       <c r="I184" s="35" t="s">
         <v>1063</v>
       </c>
-      <c r="J184" s="43"/>
+      <c r="J184" s="44"/>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="18" t="s">
@@ -20411,7 +20421,7 @@
       <c r="H186" s="21" t="s">
         <v>683</v>
       </c>
-      <c r="I186" s="44" t="s">
+      <c r="I186" s="42" t="s">
         <v>1065</v>
       </c>
     </row>
@@ -20680,12 +20690,17 @@
       <c r="H197" s="21" t="s">
         <v>977</v>
       </c>
-      <c r="I197" s="44" t="s">
+      <c r="I197" s="42" t="s">
         <v>1067</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J87:J90"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="J97:J100"/>
+    <mergeCell ref="J101:J104"/>
     <mergeCell ref="J121:J123"/>
     <mergeCell ref="J171:J184"/>
     <mergeCell ref="J105:J108"/>
@@ -20693,11 +20708,6 @@
     <mergeCell ref="J113:J115"/>
     <mergeCell ref="J116:J117"/>
     <mergeCell ref="J118:J120"/>
-    <mergeCell ref="J87:J90"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="J93:J96"/>
-    <mergeCell ref="J97:J100"/>
-    <mergeCell ref="J101:J104"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
